--- a/訓練資料集(下身).xlsx
+++ b/訓練資料集(下身).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\訓練資料集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5617501-13E5-4E4B-82D3-576704DC366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26D8F3-8FBF-5A4C-A4FA-9EB25FE1D302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="1162">
   <si>
     <t>URL</t>
   </si>
@@ -2115,69 +2115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>https://tpimage.91app.com/adidas/train_file/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下身服飾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>情境男女模特正面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tpimage.91app.com/adidas/IT0148_OK/1-Main/All/IT0148_01.jpg</t>
   </si>
   <si>
@@ -3752,6 +3689,102 @@
   </si>
   <si>
     <t>_HM10_</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IT1796_OK/1-Main/All/IT1796_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IT1796_OK/1-Main/All/IT1796_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IT1796_OK/1-Main/All/IT1796_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IT1796_OK/1-Main/All/IT1796_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IT1796_OK/1-Main/All/IT1796_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW3505_OK/1-Main/All/IW3505_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW3505_OK/1-Main/All/IW3505_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW3505_OK/1-Main/All/IW3505_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/IW3505_OK/1-Main/All/IW3505_04.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>https://tpimage.91app.com/adidas/train_file/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下身服飾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情境男女模特正面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3844,13 +3877,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -3893,6 +3919,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3950,19 +3984,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4185,17 +4219,17 @@
   <dimension ref="A1:E1650"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1133" sqref="D1133"/>
+      <pane ySplit="1" topLeftCell="A1117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1137" sqref="D1137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="72.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="11"/>
-    <col min="4" max="4" width="25.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="11"/>
+    <col min="1" max="1" width="72.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="11"/>
+    <col min="4" max="4" width="25.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -4216,8 +4250,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>668</v>
+      <c r="A2" s="21" t="s">
+        <v>1161</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>7</v>
@@ -4234,7 +4268,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4406,7 +4440,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E12" s="11" cm="1">
         <f t="array" ref="E12">IF(C12="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C12)*(工作表2!B:B=D12), 0)),""))</f>
@@ -4424,7 +4458,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E13" s="11" cm="1">
         <f t="array" ref="E13">IF(C13="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C13)*(工作表2!B:B=D13), 0)),""))</f>
@@ -5306,7 +5340,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E62" s="11" cm="1">
         <f t="array" ref="E62">IF(C62="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C62)*(工作表2!B:B=D62), 0)),""))</f>
@@ -5324,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E63" s="11" cm="1">
         <f t="array" ref="E63">IF(C63="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C63)*(工作表2!B:B=D63), 0)),""))</f>
@@ -5450,7 +5484,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E70" s="11" cm="1">
         <f t="array" ref="E70">IF(C70="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C70)*(工作表2!B:B=D70), 0)),""))</f>
@@ -5468,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E71" s="11" cm="1">
         <f t="array" ref="E71">IF(C71="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C71)*(工作表2!B:B=D71), 0)),""))</f>
@@ -8600,7 +8634,7 @@
         <v>55</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E245" s="11" cm="1">
         <f t="array" ref="E245">IF(C245="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C245)*(工作表2!B:B=D245), 0)),""))</f>
@@ -8618,7 +8652,7 @@
         <v>55</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E246" s="11" cm="1">
         <f t="array" ref="E246">IF(C246="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C246)*(工作表2!B:B=D246), 0)),""))</f>
@@ -8744,7 +8778,7 @@
         <v>55</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E253" s="11" cm="1">
         <f t="array" ref="E253">IF(C253="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C253)*(工作表2!B:B=D253), 0)),""))</f>
@@ -8762,7 +8796,7 @@
         <v>55</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E254" s="11" cm="1">
         <f t="array" ref="E254">IF(C254="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C254)*(工作表2!B:B=D254), 0)),""))</f>
@@ -8924,7 +8958,7 @@
         <v>55</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E263" s="11" cm="1">
         <f t="array" ref="E263">IF(C263="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C263)*(工作表2!B:B=D263), 0)),""))</f>
@@ -8942,7 +8976,7 @@
         <v>55</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E264" s="11" cm="1">
         <f t="array" ref="E264">IF(C264="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C264)*(工作表2!B:B=D264), 0)),""))</f>
@@ -9176,7 +9210,7 @@
         <v>55</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E277" s="11" cm="1">
         <f t="array" ref="E277">IF(C277="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C277)*(工作表2!B:B=D277), 0)),""))</f>
@@ -9194,7 +9228,7 @@
         <v>55</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E278" s="11" cm="1">
         <f t="array" ref="E278">IF(C278="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C278)*(工作表2!B:B=D278), 0)),""))</f>
@@ -9968,7 +10002,7 @@
         <v>55</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E321" s="11" cm="1">
         <f t="array" ref="E321">IF(C321="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C321)*(工作表2!B:B=D321), 0)),""))</f>
@@ -9986,7 +10020,7 @@
         <v>55</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E322" s="11" cm="1">
         <f t="array" ref="E322">IF(C322="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C322)*(工作表2!B:B=D322), 0)),""))</f>
@@ -10616,7 +10650,7 @@
         <v>55</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E357" s="11" cm="1">
         <f t="array" ref="E357">IF(C357="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C357)*(工作表2!B:B=D357), 0)),""))</f>
@@ -10634,7 +10668,7 @@
         <v>55</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E358" s="11" cm="1">
         <f t="array" ref="E358">IF(C358="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C358)*(工作表2!B:B=D358), 0)),""))</f>
@@ -10760,7 +10794,7 @@
         <v>55</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E365" s="11" cm="1">
         <f t="array" ref="E365">IF(C365="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C365)*(工作表2!B:B=D365), 0)),""))</f>
@@ -10778,7 +10812,7 @@
         <v>55</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E366" s="11" cm="1">
         <f t="array" ref="E366">IF(C366="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C366)*(工作表2!B:B=D366), 0)),""))</f>
@@ -10904,7 +10938,7 @@
         <v>55</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E373" s="11" cm="1">
         <f t="array" ref="E373">IF(C373="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C373)*(工作表2!B:B=D373), 0)),""))</f>
@@ -11246,7 +11280,7 @@
         <v>55</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E392" s="11" cm="1">
         <f t="array" ref="E392">IF(C392="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C392)*(工作表2!B:B=D392), 0)),""))</f>
@@ -11264,7 +11298,7 @@
         <v>55</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E393" s="11" cm="1">
         <f t="array" ref="E393">IF(C393="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C393)*(工作表2!B:B=D393), 0)),""))</f>
@@ -11606,7 +11640,7 @@
         <v>55</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E412" s="11" cm="1">
         <f t="array" ref="E412">IF(C412="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C412)*(工作表2!B:B=D412), 0)),""))</f>
@@ -11624,7 +11658,7 @@
         <v>55</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E413" s="11" cm="1">
         <f t="array" ref="E413">IF(C413="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C413)*(工作表2!B:B=D413), 0)),""))</f>
@@ -11876,7 +11910,7 @@
         <v>55</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E427" s="11" cm="1">
         <f t="array" ref="E427">IF(C427="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C427)*(工作表2!B:B=D427), 0)),""))</f>
@@ -11894,7 +11928,7 @@
         <v>55</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E428" s="11" cm="1">
         <f t="array" ref="E428">IF(C428="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C428)*(工作表2!B:B=D428), 0)),""))</f>
@@ -12020,7 +12054,7 @@
         <v>55</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E435" s="11" cm="1">
         <f t="array" ref="E435">IF(C435="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C435)*(工作表2!B:B=D435), 0)),""))</f>
@@ -12038,7 +12072,7 @@
         <v>55</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E436" s="11" cm="1">
         <f t="array" ref="E436">IF(C436="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C436)*(工作表2!B:B=D436), 0)),""))</f>
@@ -12182,7 +12216,7 @@
         <v>55</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E444" s="11" cm="1">
         <f t="array" ref="E444">IF(C444="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C444)*(工作表2!B:B=D444), 0)),""))</f>
@@ -12200,7 +12234,7 @@
         <v>55</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E445" s="11" cm="1">
         <f t="array" ref="E445">IF(C445="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C445)*(工作表2!B:B=D445), 0)),""))</f>
@@ -12344,7 +12378,7 @@
         <v>55</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E453" s="11" cm="1">
         <f t="array" ref="E453">IF(C453="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C453)*(工作表2!B:B=D453), 0)),""))</f>
@@ -12362,7 +12396,7 @@
         <v>55</v>
       </c>
       <c r="D454" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E454" s="11" cm="1">
         <f t="array" ref="E454">IF(C454="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C454)*(工作表2!B:B=D454), 0)),""))</f>
@@ -12506,7 +12540,7 @@
         <v>55</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E462" s="11" cm="1">
         <f t="array" ref="E462">IF(C462="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C462)*(工作表2!B:B=D462), 0)),""))</f>
@@ -12524,7 +12558,7 @@
         <v>55</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E463" s="11" cm="1">
         <f t="array" ref="E463">IF(C463="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C463)*(工作表2!B:B=D463), 0)),""))</f>
@@ -12650,7 +12684,7 @@
         <v>55</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E470" s="11" cm="1">
         <f t="array" ref="E470">IF(C470="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C470)*(工作表2!B:B=D470), 0)),""))</f>
@@ -12668,7 +12702,7 @@
         <v>55</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E471" s="11" cm="1">
         <f t="array" ref="E471">IF(C471="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C471)*(工作表2!B:B=D471), 0)),""))</f>
@@ -12794,7 +12828,7 @@
         <v>55</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E478" s="11" cm="1">
         <f t="array" ref="E478">IF(C478="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C478)*(工作表2!B:B=D478), 0)),""))</f>
@@ -12812,7 +12846,7 @@
         <v>55</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E479" s="11" cm="1">
         <f t="array" ref="E479">IF(C479="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C479)*(工作表2!B:B=D479), 0)),""))</f>
@@ -12956,7 +12990,7 @@
         <v>55</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E487" s="11" cm="1">
         <f t="array" ref="E487">IF(C487="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C487)*(工作表2!B:B=D487), 0)),""))</f>
@@ -12974,7 +13008,7 @@
         <v>55</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E488" s="11" cm="1">
         <f t="array" ref="E488">IF(C488="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C488)*(工作表2!B:B=D488), 0)),""))</f>
@@ -13874,7 +13908,7 @@
         <v>55</v>
       </c>
       <c r="D538" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E538" s="11" cm="1">
         <f t="array" ref="E538">IF(C538="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C538)*(工作表2!B:B=D538), 0)),""))</f>
@@ -13892,7 +13926,7 @@
         <v>55</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E539" s="11" cm="1">
         <f t="array" ref="E539">IF(C539="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C539)*(工作表2!B:B=D539), 0)),""))</f>
@@ -14378,7 +14412,7 @@
         <v>55</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E566" s="11" cm="1">
         <f t="array" ref="E566">IF(C566="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C566)*(工作表2!B:B=D566), 0)),""))</f>
@@ -14396,7 +14430,7 @@
         <v>55</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E567" s="11" cm="1">
         <f t="array" ref="E567">IF(C567="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C567)*(工作表2!B:B=D567), 0)),""))</f>
@@ -14540,7 +14574,7 @@
         <v>55</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E575" s="11" cm="1">
         <f t="array" ref="E575">IF(C575="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C575)*(工作表2!B:B=D575), 0)),""))</f>
@@ -14558,7 +14592,7 @@
         <v>55</v>
       </c>
       <c r="D576" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E576" s="11" cm="1">
         <f t="array" ref="E576">IF(C576="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C576)*(工作表2!B:B=D576), 0)),""))</f>
@@ -14936,7 +14970,7 @@
         <v>55</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E597" s="11" cm="1">
         <f t="array" ref="E597">IF(C597="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C597)*(工作表2!B:B=D597), 0)),""))</f>
@@ -14954,7 +14988,7 @@
         <v>55</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E598" s="11" cm="1">
         <f t="array" ref="E598">IF(C598="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C598)*(工作表2!B:B=D598), 0)),""))</f>
@@ -15206,7 +15240,7 @@
         <v>55</v>
       </c>
       <c r="D612" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E612" s="11" cm="1">
         <f t="array" ref="E612">IF(C612="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C612)*(工作表2!B:B=D612), 0)),""))</f>
@@ -15224,7 +15258,7 @@
         <v>55</v>
       </c>
       <c r="D613" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E613" s="11" cm="1">
         <f t="array" ref="E613">IF(C613="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C613)*(工作表2!B:B=D613), 0)),""))</f>
@@ -15368,7 +15402,7 @@
         <v>55</v>
       </c>
       <c r="D621" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E621" s="11" cm="1">
         <f t="array" ref="E621">IF(C621="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C621)*(工作表2!B:B=D621), 0)),""))</f>
@@ -15386,7 +15420,7 @@
         <v>55</v>
       </c>
       <c r="D622" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E622" s="11" cm="1">
         <f t="array" ref="E622">IF(C622="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C622)*(工作表2!B:B=D622), 0)),""))</f>
@@ -15791,7 +15825,7 @@
     </row>
     <row r="645" spans="1:5" ht="20" customHeight="1">
       <c r="A645" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B645" s="11" t="s">
         <v>7</v>
@@ -15809,7 +15843,7 @@
     </row>
     <row r="646" spans="1:5" ht="20" customHeight="1">
       <c r="A646" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B646" s="11" t="s">
         <v>7</v>
@@ -15827,7 +15861,7 @@
     </row>
     <row r="647" spans="1:5" ht="20" customHeight="1">
       <c r="A647" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B647" s="11" t="s">
         <v>7</v>
@@ -15845,7 +15879,7 @@
     </row>
     <row r="648" spans="1:5" ht="20" customHeight="1">
       <c r="A648" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B648" s="11" t="s">
         <v>7</v>
@@ -15863,7 +15897,7 @@
     </row>
     <row r="649" spans="1:5" ht="20" customHeight="1">
       <c r="A649" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B649" s="11" t="s">
         <v>7</v>
@@ -15881,7 +15915,7 @@
     </row>
     <row r="650" spans="1:5" ht="20" customHeight="1">
       <c r="A650" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B650" s="11" t="s">
         <v>7</v>
@@ -15899,7 +15933,7 @@
     </row>
     <row r="651" spans="1:5" ht="20" customHeight="1">
       <c r="A651" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B651" s="11" t="s">
         <v>7</v>
@@ -15917,7 +15951,7 @@
     </row>
     <row r="652" spans="1:5" ht="20" customHeight="1">
       <c r="A652" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B652" s="11" t="s">
         <v>7</v>
@@ -15935,7 +15969,7 @@
     </row>
     <row r="653" spans="1:5" ht="20" customHeight="1">
       <c r="A653" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B653" s="11" t="s">
         <v>7</v>
@@ -15953,7 +15987,7 @@
     </row>
     <row r="654" spans="1:5" ht="20" customHeight="1">
       <c r="A654" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B654" s="11" t="s">
         <v>7</v>
@@ -15971,7 +16005,7 @@
     </row>
     <row r="655" spans="1:5" ht="20" customHeight="1">
       <c r="A655" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B655" s="11" t="s">
         <v>7</v>
@@ -15989,7 +16023,7 @@
     </row>
     <row r="656" spans="1:5" ht="20" customHeight="1">
       <c r="A656" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B656" s="11" t="s">
         <v>7</v>
@@ -16007,7 +16041,7 @@
     </row>
     <row r="657" spans="1:5" ht="20" customHeight="1">
       <c r="A657" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B657" s="11" t="s">
         <v>7</v>
@@ -16025,7 +16059,7 @@
     </row>
     <row r="658" spans="1:5" ht="20" customHeight="1">
       <c r="A658" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B658" s="11" t="s">
         <v>7</v>
@@ -16043,7 +16077,7 @@
     </row>
     <row r="659" spans="1:5" ht="20" customHeight="1">
       <c r="A659" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B659" s="11" t="s">
         <v>7</v>
@@ -16061,7 +16095,7 @@
     </row>
     <row r="660" spans="1:5" ht="20" customHeight="1">
       <c r="A660" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B660" s="11" t="s">
         <v>7</v>
@@ -16079,7 +16113,7 @@
     </row>
     <row r="661" spans="1:5" ht="20" customHeight="1">
       <c r="A661" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B661" s="11" t="s">
         <v>7</v>
@@ -16097,7 +16131,7 @@
     </row>
     <row r="662" spans="1:5" ht="20" customHeight="1">
       <c r="A662" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B662" s="11" t="s">
         <v>7</v>
@@ -16115,7 +16149,7 @@
     </row>
     <row r="663" spans="1:5" ht="20" customHeight="1">
       <c r="A663" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B663" s="11" t="s">
         <v>7</v>
@@ -16133,7 +16167,7 @@
     </row>
     <row r="664" spans="1:5" ht="20" customHeight="1">
       <c r="A664" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B664" s="11" t="s">
         <v>7</v>
@@ -16151,7 +16185,7 @@
     </row>
     <row r="665" spans="1:5" ht="20" customHeight="1">
       <c r="A665" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B665" s="11" t="s">
         <v>7</v>
@@ -16286,7 +16320,7 @@
         <v>55</v>
       </c>
       <c r="D672" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E672" s="11" cm="1">
         <f t="array" ref="E672">IF(C672="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C672)*(工作表2!B:B=D672), 0)),""))</f>
@@ -16304,7 +16338,7 @@
         <v>55</v>
       </c>
       <c r="D673" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E673" s="11" cm="1">
         <f t="array" ref="E673">IF(C673="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C673)*(工作表2!B:B=D673), 0)),""))</f>
@@ -16421,7 +16455,7 @@
     </row>
     <row r="680" spans="1:5" ht="20" customHeight="1">
       <c r="A680" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B680" s="11" t="s">
         <v>7</v>
@@ -16439,7 +16473,7 @@
     </row>
     <row r="681" spans="1:5" ht="20" customHeight="1">
       <c r="A681" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B681" s="11" t="s">
         <v>7</v>
@@ -16457,7 +16491,7 @@
     </row>
     <row r="682" spans="1:5" ht="20" customHeight="1">
       <c r="A682" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B682" s="11" t="s">
         <v>7</v>
@@ -16475,7 +16509,7 @@
     </row>
     <row r="683" spans="1:5" ht="20" customHeight="1">
       <c r="A683" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B683" s="11" t="s">
         <v>7</v>
@@ -16493,7 +16527,7 @@
     </row>
     <row r="684" spans="1:5" ht="20" customHeight="1">
       <c r="A684" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B684" s="11" t="s">
         <v>7</v>
@@ -16511,7 +16545,7 @@
     </row>
     <row r="685" spans="1:5" ht="20" customHeight="1">
       <c r="A685" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B685" s="11" t="s">
         <v>7</v>
@@ -16529,7 +16563,7 @@
     </row>
     <row r="686" spans="1:5" ht="20" customHeight="1">
       <c r="A686" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B686" s="11" t="s">
         <v>7</v>
@@ -16547,7 +16581,7 @@
     </row>
     <row r="687" spans="1:5" ht="20" customHeight="1">
       <c r="A687" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B687" s="11" t="s">
         <v>7</v>
@@ -16565,7 +16599,7 @@
     </row>
     <row r="688" spans="1:5" ht="20" customHeight="1">
       <c r="A688" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B688" s="11" t="s">
         <v>7</v>
@@ -16583,7 +16617,7 @@
     </row>
     <row r="689" spans="1:5" ht="20" customHeight="1">
       <c r="A689" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B689" s="11" t="s">
         <v>7</v>
@@ -16601,7 +16635,7 @@
     </row>
     <row r="690" spans="1:5" ht="20" customHeight="1">
       <c r="A690" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B690" s="11" t="s">
         <v>7</v>
@@ -16619,7 +16653,7 @@
     </row>
     <row r="691" spans="1:5" ht="20" customHeight="1">
       <c r="A691" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B691" s="11" t="s">
         <v>7</v>
@@ -16637,7 +16671,7 @@
     </row>
     <row r="692" spans="1:5" ht="20" customHeight="1">
       <c r="A692" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B692" s="11" t="s">
         <v>7</v>
@@ -16655,7 +16689,7 @@
     </row>
     <row r="693" spans="1:5" ht="20" customHeight="1">
       <c r="A693" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B693" s="11" t="s">
         <v>7</v>
@@ -16673,7 +16707,7 @@
     </row>
     <row r="694" spans="1:5" ht="20" customHeight="1">
       <c r="A694" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B694" s="11" t="s">
         <v>7</v>
@@ -16691,7 +16725,7 @@
     </row>
     <row r="695" spans="1:5" ht="20" customHeight="1">
       <c r="A695" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B695" s="11" t="s">
         <v>7</v>
@@ -16709,7 +16743,7 @@
     </row>
     <row r="696" spans="1:5" ht="20" customHeight="1">
       <c r="A696" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B696" s="11" t="s">
         <v>7</v>
@@ -16727,7 +16761,7 @@
     </row>
     <row r="697" spans="1:5" ht="20" customHeight="1">
       <c r="A697" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B697" s="11" t="s">
         <v>7</v>
@@ -16745,7 +16779,7 @@
     </row>
     <row r="698" spans="1:5" ht="20" customHeight="1">
       <c r="A698" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B698" s="11" t="s">
         <v>7</v>
@@ -16763,7 +16797,7 @@
     </row>
     <row r="699" spans="1:5" ht="20" customHeight="1">
       <c r="A699" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B699" s="11" t="s">
         <v>7</v>
@@ -16781,7 +16815,7 @@
     </row>
     <row r="700" spans="1:5" ht="20" customHeight="1">
       <c r="A700" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B700" s="11" t="s">
         <v>7</v>
@@ -16799,7 +16833,7 @@
     </row>
     <row r="701" spans="1:5" ht="20" customHeight="1">
       <c r="A701" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B701" s="11" t="s">
         <v>7</v>
@@ -16817,7 +16851,7 @@
     </row>
     <row r="702" spans="1:5" ht="20" customHeight="1">
       <c r="A702" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B702" s="11" t="s">
         <v>7</v>
@@ -16835,7 +16869,7 @@
     </row>
     <row r="703" spans="1:5" ht="20" customHeight="1">
       <c r="A703" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B703" s="11" t="s">
         <v>7</v>
@@ -16853,7 +16887,7 @@
     </row>
     <row r="704" spans="1:5" ht="20" customHeight="1">
       <c r="A704" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B704" s="11" t="s">
         <v>7</v>
@@ -16871,7 +16905,7 @@
     </row>
     <row r="705" spans="1:5" ht="20" customHeight="1">
       <c r="A705" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B705" s="11" t="s">
         <v>7</v>
@@ -16889,7 +16923,7 @@
     </row>
     <row r="706" spans="1:5" ht="20" customHeight="1">
       <c r="A706" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B706" s="11" t="s">
         <v>7</v>
@@ -16907,7 +16941,7 @@
     </row>
     <row r="707" spans="1:5" ht="20" customHeight="1">
       <c r="A707" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B707" s="11" t="s">
         <v>7</v>
@@ -16925,7 +16959,7 @@
     </row>
     <row r="708" spans="1:5" ht="20" customHeight="1">
       <c r="A708" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B708" s="11" t="s">
         <v>7</v>
@@ -16943,7 +16977,7 @@
     </row>
     <row r="709" spans="1:5" ht="20" customHeight="1">
       <c r="A709" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B709" s="11" t="s">
         <v>7</v>
@@ -16961,7 +16995,7 @@
     </row>
     <row r="710" spans="1:5" ht="20" customHeight="1">
       <c r="A710" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B710" s="11" t="s">
         <v>7</v>
@@ -16979,7 +17013,7 @@
     </row>
     <row r="711" spans="1:5" ht="20" customHeight="1">
       <c r="A711" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B711" s="11" t="s">
         <v>7</v>
@@ -16997,7 +17031,7 @@
     </row>
     <row r="712" spans="1:5" ht="20" customHeight="1">
       <c r="A712" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B712" s="11" t="s">
         <v>7</v>
@@ -17015,7 +17049,7 @@
     </row>
     <row r="713" spans="1:5" ht="20" customHeight="1">
       <c r="A713" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B713" s="11" t="s">
         <v>7</v>
@@ -17033,7 +17067,7 @@
     </row>
     <row r="714" spans="1:5" ht="20" customHeight="1">
       <c r="A714" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B714" s="11" t="s">
         <v>7</v>
@@ -17051,7 +17085,7 @@
     </row>
     <row r="715" spans="1:5" ht="20" customHeight="1">
       <c r="A715" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B715" s="11" t="s">
         <v>7</v>
@@ -17069,7 +17103,7 @@
     </row>
     <row r="716" spans="1:5" ht="20" customHeight="1">
       <c r="A716" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B716" s="11" t="s">
         <v>7</v>
@@ -17087,7 +17121,7 @@
     </row>
     <row r="717" spans="1:5" ht="20" customHeight="1">
       <c r="A717" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B717" s="11" t="s">
         <v>7</v>
@@ -17105,7 +17139,7 @@
     </row>
     <row r="718" spans="1:5" ht="20" customHeight="1">
       <c r="A718" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B718" s="11" t="s">
         <v>7</v>
@@ -17123,7 +17157,7 @@
     </row>
     <row r="719" spans="1:5" ht="20" customHeight="1">
       <c r="A719" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B719" s="11" t="s">
         <v>7</v>
@@ -17141,7 +17175,7 @@
     </row>
     <row r="720" spans="1:5" ht="20" customHeight="1">
       <c r="A720" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B720" s="11" t="s">
         <v>7</v>
@@ -17159,7 +17193,7 @@
     </row>
     <row r="721" spans="1:5" ht="20" customHeight="1">
       <c r="A721" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B721" s="11" t="s">
         <v>7</v>
@@ -17177,7 +17211,7 @@
     </row>
     <row r="722" spans="1:5" ht="20" customHeight="1">
       <c r="A722" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B722" s="11" t="s">
         <v>7</v>
@@ -17195,7 +17229,7 @@
     </row>
     <row r="723" spans="1:5" ht="20" customHeight="1">
       <c r="A723" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B723" s="11" t="s">
         <v>7</v>
@@ -17213,7 +17247,7 @@
     </row>
     <row r="724" spans="1:5" ht="20" customHeight="1">
       <c r="A724" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B724" s="11" t="s">
         <v>7</v>
@@ -17231,7 +17265,7 @@
     </row>
     <row r="725" spans="1:5" ht="20" customHeight="1">
       <c r="A725" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B725" s="11" t="s">
         <v>7</v>
@@ -17249,7 +17283,7 @@
     </row>
     <row r="726" spans="1:5" ht="20" customHeight="1">
       <c r="A726" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B726" s="11" t="s">
         <v>7</v>
@@ -17267,7 +17301,7 @@
     </row>
     <row r="727" spans="1:5" ht="20" customHeight="1">
       <c r="A727" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B727" s="11" t="s">
         <v>7</v>
@@ -17285,7 +17319,7 @@
     </row>
     <row r="728" spans="1:5" ht="20" customHeight="1">
       <c r="A728" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B728" s="11" t="s">
         <v>7</v>
@@ -17303,7 +17337,7 @@
     </row>
     <row r="729" spans="1:5" ht="20" customHeight="1">
       <c r="A729" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B729" s="11" t="s">
         <v>7</v>
@@ -17321,7 +17355,7 @@
     </row>
     <row r="730" spans="1:5" ht="20" customHeight="1">
       <c r="A730" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B730" s="11" t="s">
         <v>7</v>
@@ -17339,7 +17373,7 @@
     </row>
     <row r="731" spans="1:5" ht="20" customHeight="1">
       <c r="A731" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B731" s="11" t="s">
         <v>7</v>
@@ -17357,7 +17391,7 @@
     </row>
     <row r="732" spans="1:5" ht="20" customHeight="1">
       <c r="A732" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B732" s="11" t="s">
         <v>7</v>
@@ -17375,7 +17409,7 @@
     </row>
     <row r="733" spans="1:5" ht="20" customHeight="1">
       <c r="A733" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B733" s="11" t="s">
         <v>7</v>
@@ -17393,7 +17427,7 @@
     </row>
     <row r="734" spans="1:5" ht="20" customHeight="1">
       <c r="A734" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B734" s="11" t="s">
         <v>7</v>
@@ -17411,7 +17445,7 @@
     </row>
     <row r="735" spans="1:5" ht="20" customHeight="1">
       <c r="A735" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B735" s="11" t="s">
         <v>7</v>
@@ -17429,7 +17463,7 @@
     </row>
     <row r="736" spans="1:5" ht="20" customHeight="1">
       <c r="A736" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B736" s="11" t="s">
         <v>7</v>
@@ -17447,7 +17481,7 @@
     </row>
     <row r="737" spans="1:5" ht="20" customHeight="1">
       <c r="A737" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B737" s="11" t="s">
         <v>7</v>
@@ -17465,7 +17499,7 @@
     </row>
     <row r="738" spans="1:5" ht="20" customHeight="1">
       <c r="A738" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B738" s="11" t="s">
         <v>7</v>
@@ -17483,7 +17517,7 @@
     </row>
     <row r="739" spans="1:5" ht="20" customHeight="1">
       <c r="A739" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B739" s="11" t="s">
         <v>7</v>
@@ -17501,7 +17535,7 @@
     </row>
     <row r="740" spans="1:5" ht="20" customHeight="1">
       <c r="A740" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B740" s="11" t="s">
         <v>7</v>
@@ -17519,7 +17553,7 @@
     </row>
     <row r="741" spans="1:5" ht="20" customHeight="1">
       <c r="A741" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B741" s="11" t="s">
         <v>7</v>
@@ -17537,7 +17571,7 @@
     </row>
     <row r="742" spans="1:5" ht="20" customHeight="1">
       <c r="A742" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B742" s="11" t="s">
         <v>7</v>
@@ -17555,7 +17589,7 @@
     </row>
     <row r="743" spans="1:5" ht="20" customHeight="1">
       <c r="A743" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B743" s="11" t="s">
         <v>7</v>
@@ -17573,7 +17607,7 @@
     </row>
     <row r="744" spans="1:5" ht="20" customHeight="1">
       <c r="A744" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B744" s="11" t="s">
         <v>7</v>
@@ -17591,7 +17625,7 @@
     </row>
     <row r="745" spans="1:5" ht="20" customHeight="1">
       <c r="A745" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B745" s="11" t="s">
         <v>7</v>
@@ -17609,7 +17643,7 @@
     </row>
     <row r="746" spans="1:5" ht="20" customHeight="1">
       <c r="A746" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B746" s="11" t="s">
         <v>7</v>
@@ -17627,7 +17661,7 @@
     </row>
     <row r="747" spans="1:5" ht="20" customHeight="1">
       <c r="A747" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B747" s="11" t="s">
         <v>7</v>
@@ -17645,7 +17679,7 @@
     </row>
     <row r="748" spans="1:5" ht="20" customHeight="1">
       <c r="A748" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B748" s="11" t="s">
         <v>7</v>
@@ -17663,7 +17697,7 @@
     </row>
     <row r="749" spans="1:5" ht="20" customHeight="1">
       <c r="A749" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B749" s="11" t="s">
         <v>7</v>
@@ -17681,7 +17715,7 @@
     </row>
     <row r="750" spans="1:5" ht="20" customHeight="1">
       <c r="A750" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B750" s="11" t="s">
         <v>7</v>
@@ -17699,7 +17733,7 @@
     </row>
     <row r="751" spans="1:5" ht="20" customHeight="1">
       <c r="A751" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B751" s="11" t="s">
         <v>7</v>
@@ -17717,7 +17751,7 @@
     </row>
     <row r="752" spans="1:5" ht="20" customHeight="1">
       <c r="A752" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B752" s="11" t="s">
         <v>7</v>
@@ -17735,7 +17769,7 @@
     </row>
     <row r="753" spans="1:5" ht="20" customHeight="1">
       <c r="A753" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B753" s="11" t="s">
         <v>7</v>
@@ -17753,7 +17787,7 @@
     </row>
     <row r="754" spans="1:5" ht="20" customHeight="1">
       <c r="A754" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B754" s="11" t="s">
         <v>7</v>
@@ -17771,7 +17805,7 @@
     </row>
     <row r="755" spans="1:5" ht="20" customHeight="1">
       <c r="A755" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B755" s="11" t="s">
         <v>7</v>
@@ -17789,7 +17823,7 @@
     </row>
     <row r="756" spans="1:5" ht="20" customHeight="1">
       <c r="A756" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B756" s="11" t="s">
         <v>7</v>
@@ -17807,7 +17841,7 @@
     </row>
     <row r="757" spans="1:5" ht="20" customHeight="1">
       <c r="A757" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B757" s="11" t="s">
         <v>7</v>
@@ -17825,7 +17859,7 @@
     </row>
     <row r="758" spans="1:5" ht="20" customHeight="1">
       <c r="A758" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B758" s="11" t="s">
         <v>7</v>
@@ -17843,7 +17877,7 @@
     </row>
     <row r="759" spans="1:5" ht="20" customHeight="1">
       <c r="A759" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B759" s="11" t="s">
         <v>7</v>
@@ -17861,7 +17895,7 @@
     </row>
     <row r="760" spans="1:5" ht="20" customHeight="1">
       <c r="A760" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B760" s="11" t="s">
         <v>7</v>
@@ -17879,7 +17913,7 @@
     </row>
     <row r="761" spans="1:5" ht="20" customHeight="1">
       <c r="A761" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B761" s="11" t="s">
         <v>7</v>
@@ -17897,7 +17931,7 @@
     </row>
     <row r="762" spans="1:5" ht="20" customHeight="1">
       <c r="A762" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B762" s="11" t="s">
         <v>7</v>
@@ -17915,7 +17949,7 @@
     </row>
     <row r="763" spans="1:5" ht="20" customHeight="1">
       <c r="A763" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B763" s="11" t="s">
         <v>7</v>
@@ -17933,7 +17967,7 @@
     </row>
     <row r="764" spans="1:5" ht="20" customHeight="1">
       <c r="A764" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B764" s="11" t="s">
         <v>7</v>
@@ -17951,7 +17985,7 @@
     </row>
     <row r="765" spans="1:5" ht="20" customHeight="1">
       <c r="A765" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B765" s="11" t="s">
         <v>7</v>
@@ -17969,7 +18003,7 @@
     </row>
     <row r="766" spans="1:5" ht="20" customHeight="1">
       <c r="A766" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B766" s="11" t="s">
         <v>7</v>
@@ -17987,7 +18021,7 @@
     </row>
     <row r="767" spans="1:5" ht="20" customHeight="1">
       <c r="A767" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B767" s="11" t="s">
         <v>7</v>
@@ -18005,7 +18039,7 @@
     </row>
     <row r="768" spans="1:5" ht="20" customHeight="1">
       <c r="A768" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B768" s="11" t="s">
         <v>7</v>
@@ -18023,7 +18057,7 @@
     </row>
     <row r="769" spans="1:5" ht="20" customHeight="1">
       <c r="A769" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B769" s="11" t="s">
         <v>7</v>
@@ -18041,7 +18075,7 @@
     </row>
     <row r="770" spans="1:5" ht="20" customHeight="1">
       <c r="A770" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B770" s="11" t="s">
         <v>7</v>
@@ -18059,7 +18093,7 @@
     </row>
     <row r="771" spans="1:5" ht="20" customHeight="1">
       <c r="A771" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B771" s="11" t="s">
         <v>7</v>
@@ -18077,7 +18111,7 @@
     </row>
     <row r="772" spans="1:5" ht="20" customHeight="1">
       <c r="A772" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B772" s="11" t="s">
         <v>7</v>
@@ -18095,7 +18129,7 @@
     </row>
     <row r="773" spans="1:5" ht="20" customHeight="1">
       <c r="A773" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B773" s="11" t="s">
         <v>7</v>
@@ -18113,7 +18147,7 @@
     </row>
     <row r="774" spans="1:5" ht="20" customHeight="1">
       <c r="A774" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B774" s="11" t="s">
         <v>7</v>
@@ -18131,7 +18165,7 @@
     </row>
     <row r="775" spans="1:5" ht="20" customHeight="1">
       <c r="A775" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B775" s="11" t="s">
         <v>7</v>
@@ -18149,7 +18183,7 @@
     </row>
     <row r="776" spans="1:5" ht="20" customHeight="1">
       <c r="A776" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B776" s="11" t="s">
         <v>7</v>
@@ -18167,7 +18201,7 @@
     </row>
     <row r="777" spans="1:5" ht="20" customHeight="1">
       <c r="A777" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B777" s="11" t="s">
         <v>7</v>
@@ -18185,7 +18219,7 @@
     </row>
     <row r="778" spans="1:5" ht="20" customHeight="1">
       <c r="A778" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B778" s="11" t="s">
         <v>7</v>
@@ -18203,7 +18237,7 @@
     </row>
     <row r="779" spans="1:5" ht="20" customHeight="1">
       <c r="A779" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B779" s="11" t="s">
         <v>7</v>
@@ -18221,7 +18255,7 @@
     </row>
     <row r="780" spans="1:5" ht="20" customHeight="1">
       <c r="A780" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B780" s="11" t="s">
         <v>7</v>
@@ -18239,7 +18273,7 @@
     </row>
     <row r="781" spans="1:5" ht="20" customHeight="1">
       <c r="A781" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B781" s="11" t="s">
         <v>7</v>
@@ -18257,7 +18291,7 @@
     </row>
     <row r="782" spans="1:5" ht="20" customHeight="1">
       <c r="A782" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B782" s="11" t="s">
         <v>7</v>
@@ -18275,7 +18309,7 @@
     </row>
     <row r="783" spans="1:5" ht="20" customHeight="1">
       <c r="A783" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B783" s="11" t="s">
         <v>7</v>
@@ -18293,7 +18327,7 @@
     </row>
     <row r="784" spans="1:5" ht="20" customHeight="1">
       <c r="A784" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B784" s="11" t="s">
         <v>7</v>
@@ -18311,7 +18345,7 @@
     </row>
     <row r="785" spans="1:5" ht="20" customHeight="1">
       <c r="A785" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B785" s="11" t="s">
         <v>7</v>
@@ -18329,7 +18363,7 @@
     </row>
     <row r="786" spans="1:5" ht="20" customHeight="1">
       <c r="A786" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B786" s="11" t="s">
         <v>7</v>
@@ -18347,7 +18381,7 @@
     </row>
     <row r="787" spans="1:5" ht="20" customHeight="1">
       <c r="A787" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B787" s="11" t="s">
         <v>7</v>
@@ -18365,7 +18399,7 @@
     </row>
     <row r="788" spans="1:5" ht="20" customHeight="1">
       <c r="A788" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B788" s="11" t="s">
         <v>7</v>
@@ -18383,7 +18417,7 @@
     </row>
     <row r="789" spans="1:5" ht="20" customHeight="1">
       <c r="A789" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B789" s="11" t="s">
         <v>7</v>
@@ -18401,7 +18435,7 @@
     </row>
     <row r="790" spans="1:5" ht="20" customHeight="1">
       <c r="A790" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B790" s="11" t="s">
         <v>7</v>
@@ -18419,7 +18453,7 @@
     </row>
     <row r="791" spans="1:5" ht="20" customHeight="1">
       <c r="A791" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B791" s="11" t="s">
         <v>7</v>
@@ -18437,7 +18471,7 @@
     </row>
     <row r="792" spans="1:5" ht="20" customHeight="1">
       <c r="A792" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B792" s="11" t="s">
         <v>7</v>
@@ -18455,7 +18489,7 @@
     </row>
     <row r="793" spans="1:5" ht="20" customHeight="1">
       <c r="A793" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B793" s="11" t="s">
         <v>7</v>
@@ -18473,7 +18507,7 @@
     </row>
     <row r="794" spans="1:5" ht="20" customHeight="1">
       <c r="A794" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B794" s="11" t="s">
         <v>7</v>
@@ -18491,7 +18525,7 @@
     </row>
     <row r="795" spans="1:5" ht="20" customHeight="1">
       <c r="A795" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B795" s="11" t="s">
         <v>7</v>
@@ -18509,7 +18543,7 @@
     </row>
     <row r="796" spans="1:5" ht="20" customHeight="1">
       <c r="A796" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B796" s="11" t="s">
         <v>7</v>
@@ -18527,7 +18561,7 @@
     </row>
     <row r="797" spans="1:5" ht="20" customHeight="1">
       <c r="A797" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B797" s="11" t="s">
         <v>7</v>
@@ -18545,7 +18579,7 @@
     </row>
     <row r="798" spans="1:5" ht="20" customHeight="1">
       <c r="A798" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B798" s="11" t="s">
         <v>7</v>
@@ -18563,7 +18597,7 @@
     </row>
     <row r="799" spans="1:5" ht="20" customHeight="1">
       <c r="A799" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B799" s="11" t="s">
         <v>7</v>
@@ -18581,7 +18615,7 @@
     </row>
     <row r="800" spans="1:5" ht="20" customHeight="1">
       <c r="A800" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B800" s="11" t="s">
         <v>7</v>
@@ -18599,7 +18633,7 @@
     </row>
     <row r="801" spans="1:5" ht="20" customHeight="1">
       <c r="A801" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B801" s="11" t="s">
         <v>7</v>
@@ -18617,7 +18651,7 @@
     </row>
     <row r="802" spans="1:5" ht="20" customHeight="1">
       <c r="A802" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B802" s="11" t="s">
         <v>7</v>
@@ -18635,7 +18669,7 @@
     </row>
     <row r="803" spans="1:5" ht="20" customHeight="1">
       <c r="A803" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B803" s="11" t="s">
         <v>7</v>
@@ -18653,7 +18687,7 @@
     </row>
     <row r="804" spans="1:5" ht="20" customHeight="1">
       <c r="A804" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B804" s="11" t="s">
         <v>7</v>
@@ -18671,7 +18705,7 @@
     </row>
     <row r="805" spans="1:5" ht="20" customHeight="1">
       <c r="A805" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B805" s="11" t="s">
         <v>7</v>
@@ -18689,7 +18723,7 @@
     </row>
     <row r="806" spans="1:5" ht="20" customHeight="1">
       <c r="A806" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B806" s="11" t="s">
         <v>7</v>
@@ -18707,7 +18741,7 @@
     </row>
     <row r="807" spans="1:5" ht="20" customHeight="1">
       <c r="A807" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B807" s="11" t="s">
         <v>7</v>
@@ -18725,7 +18759,7 @@
     </row>
     <row r="808" spans="1:5" ht="20" customHeight="1">
       <c r="A808" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B808" s="11" t="s">
         <v>7</v>
@@ -18743,7 +18777,7 @@
     </row>
     <row r="809" spans="1:5" ht="20" customHeight="1">
       <c r="A809" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B809" s="11" t="s">
         <v>7</v>
@@ -18761,7 +18795,7 @@
     </row>
     <row r="810" spans="1:5" ht="20" customHeight="1">
       <c r="A810" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B810" s="11" t="s">
         <v>7</v>
@@ -18779,7 +18813,7 @@
     </row>
     <row r="811" spans="1:5" ht="20" customHeight="1">
       <c r="A811" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B811" s="11" t="s">
         <v>7</v>
@@ -18797,7 +18831,7 @@
     </row>
     <row r="812" spans="1:5" ht="20" customHeight="1">
       <c r="A812" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B812" s="11" t="s">
         <v>7</v>
@@ -18815,7 +18849,7 @@
     </row>
     <row r="813" spans="1:5" ht="20" customHeight="1">
       <c r="A813" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B813" s="11" t="s">
         <v>7</v>
@@ -18833,7 +18867,7 @@
     </row>
     <row r="814" spans="1:5" ht="20" customHeight="1">
       <c r="A814" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B814" s="11" t="s">
         <v>7</v>
@@ -18851,7 +18885,7 @@
     </row>
     <row r="815" spans="1:5" ht="20" customHeight="1">
       <c r="A815" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B815" s="11" t="s">
         <v>7</v>
@@ -18869,7 +18903,7 @@
     </row>
     <row r="816" spans="1:5" ht="20" customHeight="1">
       <c r="A816" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B816" s="11" t="s">
         <v>7</v>
@@ -18887,7 +18921,7 @@
     </row>
     <row r="817" spans="1:5" ht="20" customHeight="1">
       <c r="A817" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B817" s="11" t="s">
         <v>7</v>
@@ -18905,7 +18939,7 @@
     </row>
     <row r="818" spans="1:5" ht="20" customHeight="1">
       <c r="A818" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B818" s="11" t="s">
         <v>7</v>
@@ -18923,7 +18957,7 @@
     </row>
     <row r="819" spans="1:5" ht="20" customHeight="1">
       <c r="A819" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B819" s="11" t="s">
         <v>7</v>
@@ -18941,7 +18975,7 @@
     </row>
     <row r="820" spans="1:5" ht="20" customHeight="1">
       <c r="A820" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B820" s="11" t="s">
         <v>7</v>
@@ -18959,7 +18993,7 @@
     </row>
     <row r="821" spans="1:5" ht="20" customHeight="1">
       <c r="A821" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B821" s="11" t="s">
         <v>7</v>
@@ -18977,7 +19011,7 @@
     </row>
     <row r="822" spans="1:5" ht="20" customHeight="1">
       <c r="A822" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B822" s="11" t="s">
         <v>7</v>
@@ -18995,7 +19029,7 @@
     </row>
     <row r="823" spans="1:5" ht="20" customHeight="1">
       <c r="A823" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B823" s="11" t="s">
         <v>7</v>
@@ -19013,7 +19047,7 @@
     </row>
     <row r="824" spans="1:5" ht="20" customHeight="1">
       <c r="A824" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B824" s="11" t="s">
         <v>7</v>
@@ -19031,7 +19065,7 @@
     </row>
     <row r="825" spans="1:5" ht="20" customHeight="1">
       <c r="A825" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B825" s="11" t="s">
         <v>7</v>
@@ -19049,7 +19083,7 @@
     </row>
     <row r="826" spans="1:5" ht="20" customHeight="1">
       <c r="A826" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B826" s="11" t="s">
         <v>7</v>
@@ -19067,7 +19101,7 @@
     </row>
     <row r="827" spans="1:5" ht="20" customHeight="1">
       <c r="A827" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B827" s="11" t="s">
         <v>7</v>
@@ -19085,7 +19119,7 @@
     </row>
     <row r="828" spans="1:5" ht="20" customHeight="1">
       <c r="A828" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B828" s="11" t="s">
         <v>7</v>
@@ -19103,7 +19137,7 @@
     </row>
     <row r="829" spans="1:5" ht="20" customHeight="1">
       <c r="A829" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B829" s="11" t="s">
         <v>7</v>
@@ -19121,7 +19155,7 @@
     </row>
     <row r="830" spans="1:5" ht="20" customHeight="1">
       <c r="A830" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B830" s="11" t="s">
         <v>7</v>
@@ -19139,7 +19173,7 @@
     </row>
     <row r="831" spans="1:5" ht="20" customHeight="1">
       <c r="A831" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B831" s="11" t="s">
         <v>7</v>
@@ -19157,7 +19191,7 @@
     </row>
     <row r="832" spans="1:5" ht="20" customHeight="1">
       <c r="A832" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B832" s="11" t="s">
         <v>7</v>
@@ -19175,7 +19209,7 @@
     </row>
     <row r="833" spans="1:5" ht="20" customHeight="1">
       <c r="A833" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B833" s="11" t="s">
         <v>7</v>
@@ -19193,7 +19227,7 @@
     </row>
     <row r="834" spans="1:5" ht="20" customHeight="1">
       <c r="A834" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B834" s="11" t="s">
         <v>7</v>
@@ -19211,7 +19245,7 @@
     </row>
     <row r="835" spans="1:5" ht="20" customHeight="1">
       <c r="A835" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B835" s="11" t="s">
         <v>7</v>
@@ -19229,7 +19263,7 @@
     </row>
     <row r="836" spans="1:5" ht="20" customHeight="1">
       <c r="A836" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B836" s="11" t="s">
         <v>7</v>
@@ -19247,7 +19281,7 @@
     </row>
     <row r="837" spans="1:5" ht="20" customHeight="1">
       <c r="A837" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B837" s="11" t="s">
         <v>7</v>
@@ -19265,7 +19299,7 @@
     </row>
     <row r="838" spans="1:5" ht="20" customHeight="1">
       <c r="A838" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B838" s="11" t="s">
         <v>7</v>
@@ -19283,7 +19317,7 @@
     </row>
     <row r="839" spans="1:5" ht="20" customHeight="1">
       <c r="A839" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B839" s="11" t="s">
         <v>7</v>
@@ -19301,7 +19335,7 @@
     </row>
     <row r="840" spans="1:5" ht="20" customHeight="1">
       <c r="A840" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B840" s="11" t="s">
         <v>7</v>
@@ -19319,7 +19353,7 @@
     </row>
     <row r="841" spans="1:5" ht="20" customHeight="1">
       <c r="A841" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B841" s="11" t="s">
         <v>7</v>
@@ -19337,7 +19371,7 @@
     </row>
     <row r="842" spans="1:5" ht="20" customHeight="1">
       <c r="A842" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B842" s="11" t="s">
         <v>7</v>
@@ -19355,7 +19389,7 @@
     </row>
     <row r="843" spans="1:5" ht="20" customHeight="1">
       <c r="A843" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B843" s="11" t="s">
         <v>7</v>
@@ -19373,7 +19407,7 @@
     </row>
     <row r="844" spans="1:5" ht="20" customHeight="1">
       <c r="A844" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B844" s="11" t="s">
         <v>7</v>
@@ -19391,7 +19425,7 @@
     </row>
     <row r="845" spans="1:5" ht="20" customHeight="1">
       <c r="A845" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B845" s="11" t="s">
         <v>7</v>
@@ -19409,7 +19443,7 @@
     </row>
     <row r="846" spans="1:5" ht="20" customHeight="1">
       <c r="A846" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B846" s="11" t="s">
         <v>7</v>
@@ -19427,7 +19461,7 @@
     </row>
     <row r="847" spans="1:5" ht="20" customHeight="1">
       <c r="A847" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B847" s="11" t="s">
         <v>7</v>
@@ -19445,7 +19479,7 @@
     </row>
     <row r="848" spans="1:5" ht="20" customHeight="1">
       <c r="A848" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B848" s="11" t="s">
         <v>7</v>
@@ -19463,7 +19497,7 @@
     </row>
     <row r="849" spans="1:5" ht="20" customHeight="1">
       <c r="A849" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B849" s="11" t="s">
         <v>7</v>
@@ -19481,7 +19515,7 @@
     </row>
     <row r="850" spans="1:5" ht="20" customHeight="1">
       <c r="A850" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B850" s="11" t="s">
         <v>7</v>
@@ -19499,7 +19533,7 @@
     </row>
     <row r="851" spans="1:5" ht="20" customHeight="1">
       <c r="A851" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B851" s="11" t="s">
         <v>7</v>
@@ -19517,7 +19551,7 @@
     </row>
     <row r="852" spans="1:5" ht="20" customHeight="1">
       <c r="A852" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B852" s="11" t="s">
         <v>7</v>
@@ -19535,7 +19569,7 @@
     </row>
     <row r="853" spans="1:5" ht="20" customHeight="1">
       <c r="A853" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B853" s="11" t="s">
         <v>7</v>
@@ -19553,7 +19587,7 @@
     </row>
     <row r="854" spans="1:5" ht="20" customHeight="1">
       <c r="A854" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B854" s="11" t="s">
         <v>7</v>
@@ -19571,7 +19605,7 @@
     </row>
     <row r="855" spans="1:5" ht="20" customHeight="1">
       <c r="A855" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B855" s="11" t="s">
         <v>7</v>
@@ -19589,7 +19623,7 @@
     </row>
     <row r="856" spans="1:5" ht="20" customHeight="1">
       <c r="A856" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B856" s="11" t="s">
         <v>7</v>
@@ -19607,7 +19641,7 @@
     </row>
     <row r="857" spans="1:5" ht="20" customHeight="1">
       <c r="A857" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B857" s="11" t="s">
         <v>7</v>
@@ -19616,7 +19650,7 @@
         <v>55</v>
       </c>
       <c r="D857" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E857" s="11" cm="1">
         <f t="array" ref="E857">IF(C857="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C857)*(工作表2!B:B=D857), 0)),""))</f>
@@ -19625,7 +19659,7 @@
     </row>
     <row r="858" spans="1:5" ht="20" customHeight="1">
       <c r="A858" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B858" s="11" t="s">
         <v>7</v>
@@ -19634,7 +19668,7 @@
         <v>55</v>
       </c>
       <c r="D858" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E858" s="11" cm="1">
         <f t="array" ref="E858">IF(C858="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C858)*(工作表2!B:B=D858), 0)),""))</f>
@@ -19643,7 +19677,7 @@
     </row>
     <row r="859" spans="1:5" ht="20" customHeight="1">
       <c r="A859" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B859" s="11" t="s">
         <v>7</v>
@@ -19661,7 +19695,7 @@
     </row>
     <row r="860" spans="1:5" ht="20" customHeight="1">
       <c r="A860" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B860" s="11" t="s">
         <v>7</v>
@@ -19679,7 +19713,7 @@
     </row>
     <row r="861" spans="1:5" ht="20" customHeight="1">
       <c r="A861" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B861" s="11" t="s">
         <v>7</v>
@@ -19697,7 +19731,7 @@
     </row>
     <row r="862" spans="1:5" ht="20" customHeight="1">
       <c r="A862" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B862" s="11" t="s">
         <v>7</v>
@@ -19715,7 +19749,7 @@
     </row>
     <row r="863" spans="1:5" ht="20" customHeight="1">
       <c r="A863" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B863" s="11" t="s">
         <v>7</v>
@@ -19724,7 +19758,7 @@
         <v>55</v>
       </c>
       <c r="D863" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E863" s="11" cm="1">
         <f t="array" ref="E863">IF(C863="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C863)*(工作表2!B:B=D863), 0)),""))</f>
@@ -19733,7 +19767,7 @@
     </row>
     <row r="864" spans="1:5" ht="20" customHeight="1">
       <c r="A864" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B864" s="11" t="s">
         <v>7</v>
@@ -19742,7 +19776,7 @@
         <v>55</v>
       </c>
       <c r="D864" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E864" s="11" cm="1">
         <f t="array" ref="E864">IF(C864="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C864)*(工作表2!B:B=D864), 0)),""))</f>
@@ -19751,7 +19785,7 @@
     </row>
     <row r="865" spans="1:5" ht="20" customHeight="1">
       <c r="A865" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B865" s="11" t="s">
         <v>7</v>
@@ -19769,7 +19803,7 @@
     </row>
     <row r="866" spans="1:5" ht="20" customHeight="1">
       <c r="A866" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B866" s="11" t="s">
         <v>7</v>
@@ -19787,7 +19821,7 @@
     </row>
     <row r="867" spans="1:5" ht="20" customHeight="1">
       <c r="A867" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B867" s="11" t="s">
         <v>7</v>
@@ -19805,7 +19839,7 @@
     </row>
     <row r="868" spans="1:5" ht="20" customHeight="1">
       <c r="A868" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B868" s="11" t="s">
         <v>7</v>
@@ -19823,7 +19857,7 @@
     </row>
     <row r="869" spans="1:5" ht="20" customHeight="1">
       <c r="A869" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B869" s="11" t="s">
         <v>7</v>
@@ -19949,7 +19983,7 @@
     </row>
     <row r="876" spans="1:5" ht="20" customHeight="1">
       <c r="A876" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B876" s="11" t="s">
         <v>7</v>
@@ -19967,7 +20001,7 @@
     </row>
     <row r="877" spans="1:5" ht="20" customHeight="1">
       <c r="A877" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B877" s="11" t="s">
         <v>7</v>
@@ -19985,7 +20019,7 @@
     </row>
     <row r="878" spans="1:5" ht="20" customHeight="1">
       <c r="A878" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B878" s="11" t="s">
         <v>7</v>
@@ -20003,7 +20037,7 @@
     </row>
     <row r="879" spans="1:5" ht="20" customHeight="1">
       <c r="A879" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B879" s="11" t="s">
         <v>7</v>
@@ -20021,7 +20055,7 @@
     </row>
     <row r="880" spans="1:5" ht="20" customHeight="1">
       <c r="A880" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B880" s="11" t="s">
         <v>7</v>
@@ -20030,7 +20064,7 @@
         <v>55</v>
       </c>
       <c r="D880" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E880" s="11" cm="1">
         <f t="array" ref="E880">IF(C880="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C880)*(工作表2!B:B=D880), 0)),""))</f>
@@ -20039,7 +20073,7 @@
     </row>
     <row r="881" spans="1:5" ht="20" customHeight="1">
       <c r="A881" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B881" s="11" t="s">
         <v>7</v>
@@ -20048,7 +20082,7 @@
         <v>55</v>
       </c>
       <c r="D881" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E881" s="11" cm="1">
         <f t="array" ref="E881">IF(C881="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C881)*(工作表2!B:B=D881), 0)),""))</f>
@@ -20057,7 +20091,7 @@
     </row>
     <row r="882" spans="1:5" ht="20" customHeight="1">
       <c r="A882" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B882" s="11" t="s">
         <v>7</v>
@@ -20075,7 +20109,7 @@
     </row>
     <row r="883" spans="1:5" ht="20" customHeight="1">
       <c r="A883" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B883" s="11" t="s">
         <v>7</v>
@@ -20093,7 +20127,7 @@
     </row>
     <row r="884" spans="1:5" ht="20" customHeight="1">
       <c r="A884" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B884" s="11" t="s">
         <v>7</v>
@@ -20111,7 +20145,7 @@
     </row>
     <row r="885" spans="1:5" ht="20" customHeight="1">
       <c r="A885" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B885" s="11" t="s">
         <v>7</v>
@@ -20129,7 +20163,7 @@
     </row>
     <row r="886" spans="1:5" ht="20" customHeight="1">
       <c r="A886" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B886" s="11" t="s">
         <v>7</v>
@@ -20147,7 +20181,7 @@
     </row>
     <row r="887" spans="1:5" ht="20" customHeight="1">
       <c r="A887" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B887" s="11" t="s">
         <v>7</v>
@@ -20165,7 +20199,7 @@
     </row>
     <row r="888" spans="1:5" ht="20" customHeight="1">
       <c r="A888" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B888" s="11" t="s">
         <v>7</v>
@@ -20183,7 +20217,7 @@
     </row>
     <row r="889" spans="1:5" ht="20" customHeight="1">
       <c r="A889" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B889" s="11" t="s">
         <v>7</v>
@@ -20201,7 +20235,7 @@
     </row>
     <row r="890" spans="1:5" ht="20" customHeight="1">
       <c r="A890" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B890" s="11" t="s">
         <v>7</v>
@@ -20219,7 +20253,7 @@
     </row>
     <row r="891" spans="1:5" ht="20" customHeight="1">
       <c r="A891" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B891" s="11" t="s">
         <v>7</v>
@@ -20237,7 +20271,7 @@
     </row>
     <row r="892" spans="1:5" ht="20" customHeight="1">
       <c r="A892" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B892" s="11" t="s">
         <v>7</v>
@@ -20255,7 +20289,7 @@
     </row>
     <row r="893" spans="1:5" ht="20" customHeight="1">
       <c r="A893" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B893" s="11" t="s">
         <v>7</v>
@@ -20264,7 +20298,7 @@
         <v>55</v>
       </c>
       <c r="D893" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E893" s="11" cm="1">
         <f t="array" ref="E893">IF(C893="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C893)*(工作表2!B:B=D893), 0)),""))</f>
@@ -20273,7 +20307,7 @@
     </row>
     <row r="894" spans="1:5" ht="20" customHeight="1">
       <c r="A894" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B894" s="11" t="s">
         <v>7</v>
@@ -20282,7 +20316,7 @@
         <v>55</v>
       </c>
       <c r="D894" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E894" s="11" cm="1">
         <f t="array" ref="E894">IF(C894="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C894)*(工作表2!B:B=D894), 0)),""))</f>
@@ -20291,7 +20325,7 @@
     </row>
     <row r="895" spans="1:5" ht="20" customHeight="1">
       <c r="A895" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B895" s="11" t="s">
         <v>7</v>
@@ -20309,7 +20343,7 @@
     </row>
     <row r="896" spans="1:5" ht="20" customHeight="1">
       <c r="A896" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B896" s="11" t="s">
         <v>7</v>
@@ -20327,7 +20361,7 @@
     </row>
     <row r="897" spans="1:5" ht="20" customHeight="1">
       <c r="A897" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B897" s="11" t="s">
         <v>7</v>
@@ -20345,7 +20379,7 @@
     </row>
     <row r="898" spans="1:5" ht="20" customHeight="1">
       <c r="A898" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B898" s="11" t="s">
         <v>7</v>
@@ -20363,7 +20397,7 @@
     </row>
     <row r="899" spans="1:5" ht="20" customHeight="1">
       <c r="A899" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B899" s="11" t="s">
         <v>7</v>
@@ -20381,7 +20415,7 @@
     </row>
     <row r="900" spans="1:5" ht="20" customHeight="1">
       <c r="A900" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B900" s="11" t="s">
         <v>7</v>
@@ -20399,7 +20433,7 @@
     </row>
     <row r="901" spans="1:5" ht="20" customHeight="1">
       <c r="A901" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B901" s="11" t="s">
         <v>7</v>
@@ -20408,7 +20442,7 @@
         <v>55</v>
       </c>
       <c r="D901" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E901" s="11" cm="1">
         <f t="array" ref="E901">IF(C901="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C901)*(工作表2!B:B=D901), 0)),""))</f>
@@ -20417,7 +20451,7 @@
     </row>
     <row r="902" spans="1:5" ht="20" customHeight="1">
       <c r="A902" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B902" s="11" t="s">
         <v>7</v>
@@ -20426,7 +20460,7 @@
         <v>55</v>
       </c>
       <c r="D902" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E902" s="11" cm="1">
         <f t="array" ref="E902">IF(C902="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C902)*(工作表2!B:B=D902), 0)),""))</f>
@@ -20435,7 +20469,7 @@
     </row>
     <row r="903" spans="1:5" ht="20" customHeight="1">
       <c r="A903" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B903" s="11" t="s">
         <v>7</v>
@@ -20453,7 +20487,7 @@
     </row>
     <row r="904" spans="1:5" ht="20" customHeight="1">
       <c r="A904" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B904" s="11" t="s">
         <v>7</v>
@@ -20471,7 +20505,7 @@
     </row>
     <row r="905" spans="1:5" ht="20" customHeight="1">
       <c r="A905" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B905" s="11" t="s">
         <v>7</v>
@@ -20489,7 +20523,7 @@
     </row>
     <row r="906" spans="1:5" ht="20" customHeight="1">
       <c r="A906" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B906" s="11" t="s">
         <v>7</v>
@@ -20507,7 +20541,7 @@
     </row>
     <row r="907" spans="1:5" ht="20" customHeight="1">
       <c r="A907" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B907" s="11" t="s">
         <v>7</v>
@@ -20525,7 +20559,7 @@
     </row>
     <row r="908" spans="1:5" ht="20" customHeight="1">
       <c r="A908" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B908" s="11" t="s">
         <v>7</v>
@@ -20543,7 +20577,7 @@
     </row>
     <row r="909" spans="1:5" ht="20" customHeight="1">
       <c r="A909" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B909" s="11" t="s">
         <v>7</v>
@@ -20561,7 +20595,7 @@
     </row>
     <row r="910" spans="1:5" ht="20" customHeight="1">
       <c r="A910" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B910" s="11" t="s">
         <v>7</v>
@@ -20579,7 +20613,7 @@
     </row>
     <row r="911" spans="1:5" ht="20" customHeight="1">
       <c r="A911" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B911" s="11" t="s">
         <v>7</v>
@@ -20597,7 +20631,7 @@
     </row>
     <row r="912" spans="1:5" ht="20" customHeight="1">
       <c r="A912" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B912" s="11" t="s">
         <v>7</v>
@@ -20615,7 +20649,7 @@
     </row>
     <row r="913" spans="1:5" ht="20" customHeight="1">
       <c r="A913" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B913" s="11" t="s">
         <v>7</v>
@@ -20633,7 +20667,7 @@
     </row>
     <row r="914" spans="1:5" ht="20" customHeight="1">
       <c r="A914" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B914" s="11" t="s">
         <v>7</v>
@@ -20651,7 +20685,7 @@
     </row>
     <row r="915" spans="1:5" ht="20" customHeight="1">
       <c r="A915" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B915" s="11" t="s">
         <v>7</v>
@@ -20669,7 +20703,7 @@
     </row>
     <row r="916" spans="1:5" ht="20" customHeight="1">
       <c r="A916" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B916" s="11" t="s">
         <v>7</v>
@@ -20687,7 +20721,7 @@
     </row>
     <row r="917" spans="1:5" ht="20" customHeight="1">
       <c r="A917" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B917" s="11" t="s">
         <v>7</v>
@@ -20705,7 +20739,7 @@
     </row>
     <row r="918" spans="1:5" ht="20" customHeight="1">
       <c r="A918" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B918" s="11" t="s">
         <v>7</v>
@@ -20723,7 +20757,7 @@
     </row>
     <row r="919" spans="1:5" ht="20" customHeight="1">
       <c r="A919" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B919" s="11" t="s">
         <v>7</v>
@@ -20741,7 +20775,7 @@
     </row>
     <row r="920" spans="1:5" ht="20" customHeight="1">
       <c r="A920" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B920" s="11" t="s">
         <v>7</v>
@@ -20759,7 +20793,7 @@
     </row>
     <row r="921" spans="1:5" ht="20" customHeight="1">
       <c r="A921" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B921" s="11" t="s">
         <v>7</v>
@@ -20777,7 +20811,7 @@
     </row>
     <row r="922" spans="1:5" ht="20" customHeight="1">
       <c r="A922" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B922" s="11" t="s">
         <v>7</v>
@@ -20795,7 +20829,7 @@
     </row>
     <row r="923" spans="1:5" ht="20" customHeight="1">
       <c r="A923" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B923" s="11" t="s">
         <v>7</v>
@@ -20813,7 +20847,7 @@
     </row>
     <row r="924" spans="1:5" ht="20" customHeight="1">
       <c r="A924" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B924" s="11" t="s">
         <v>7</v>
@@ -20831,7 +20865,7 @@
     </row>
     <row r="925" spans="1:5" ht="20" customHeight="1">
       <c r="A925" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B925" s="11" t="s">
         <v>7</v>
@@ -20849,7 +20883,7 @@
     </row>
     <row r="926" spans="1:5" ht="20" customHeight="1">
       <c r="A926" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B926" s="11" t="s">
         <v>7</v>
@@ -20867,7 +20901,7 @@
     </row>
     <row r="927" spans="1:5" ht="20" customHeight="1">
       <c r="A927" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B927" s="11" t="s">
         <v>7</v>
@@ -20885,7 +20919,7 @@
     </row>
     <row r="928" spans="1:5" ht="20" customHeight="1">
       <c r="A928" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B928" s="11" t="s">
         <v>7</v>
@@ -20903,7 +20937,7 @@
     </row>
     <row r="929" spans="1:5" ht="20" customHeight="1">
       <c r="A929" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B929" s="11" t="s">
         <v>7</v>
@@ -20921,7 +20955,7 @@
     </row>
     <row r="930" spans="1:5" ht="20" customHeight="1">
       <c r="A930" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B930" s="11" t="s">
         <v>7</v>
@@ -20939,7 +20973,7 @@
     </row>
     <row r="931" spans="1:5" ht="20" customHeight="1">
       <c r="A931" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B931" s="11" t="s">
         <v>7</v>
@@ -20957,7 +20991,7 @@
     </row>
     <row r="932" spans="1:5" ht="20" customHeight="1">
       <c r="A932" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B932" s="11" t="s">
         <v>7</v>
@@ -20975,7 +21009,7 @@
     </row>
     <row r="933" spans="1:5" ht="20" customHeight="1">
       <c r="A933" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B933" s="11" t="s">
         <v>7</v>
@@ -20993,7 +21027,7 @@
     </row>
     <row r="934" spans="1:5" ht="20" customHeight="1">
       <c r="A934" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B934" s="11" t="s">
         <v>7</v>
@@ -21011,7 +21045,7 @@
     </row>
     <row r="935" spans="1:5" ht="20" customHeight="1">
       <c r="A935" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B935" s="11" t="s">
         <v>7</v>
@@ -21029,7 +21063,7 @@
     </row>
     <row r="936" spans="1:5" ht="20" customHeight="1">
       <c r="A936" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B936" s="11" t="s">
         <v>7</v>
@@ -21047,7 +21081,7 @@
     </row>
     <row r="937" spans="1:5" ht="20" customHeight="1">
       <c r="A937" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B937" s="11" t="s">
         <v>7</v>
@@ -21065,7 +21099,7 @@
     </row>
     <row r="938" spans="1:5" ht="20" customHeight="1">
       <c r="A938" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B938" s="11" t="s">
         <v>7</v>
@@ -21083,7 +21117,7 @@
     </row>
     <row r="939" spans="1:5" ht="20" customHeight="1">
       <c r="A939" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B939" s="11" t="s">
         <v>7</v>
@@ -21101,7 +21135,7 @@
     </row>
     <row r="940" spans="1:5" ht="20" customHeight="1">
       <c r="A940" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B940" s="11" t="s">
         <v>7</v>
@@ -21119,7 +21153,7 @@
     </row>
     <row r="941" spans="1:5" ht="20" customHeight="1">
       <c r="A941" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B941" s="11" t="s">
         <v>7</v>
@@ -21137,7 +21171,7 @@
     </row>
     <row r="942" spans="1:5" ht="20" customHeight="1">
       <c r="A942" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B942" s="11" t="s">
         <v>7</v>
@@ -21155,7 +21189,7 @@
     </row>
     <row r="943" spans="1:5" ht="20" customHeight="1">
       <c r="A943" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B943" s="11" t="s">
         <v>7</v>
@@ -21173,7 +21207,7 @@
     </row>
     <row r="944" spans="1:5" ht="20" customHeight="1">
       <c r="A944" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B944" s="11" t="s">
         <v>7</v>
@@ -21191,7 +21225,7 @@
     </row>
     <row r="945" spans="1:5" ht="20" customHeight="1">
       <c r="A945" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B945" s="11" t="s">
         <v>7</v>
@@ -21209,7 +21243,7 @@
     </row>
     <row r="946" spans="1:5" ht="20" customHeight="1">
       <c r="A946" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B946" s="11" t="s">
         <v>7</v>
@@ -21227,7 +21261,7 @@
     </row>
     <row r="947" spans="1:5" ht="20" customHeight="1">
       <c r="A947" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B947" s="11" t="s">
         <v>7</v>
@@ -21245,7 +21279,7 @@
     </row>
     <row r="948" spans="1:5" ht="20" customHeight="1">
       <c r="A948" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B948" s="11" t="s">
         <v>7</v>
@@ -21263,7 +21297,7 @@
     </row>
     <row r="949" spans="1:5" ht="20" customHeight="1">
       <c r="A949" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B949" s="11" t="s">
         <v>7</v>
@@ -21281,7 +21315,7 @@
     </row>
     <row r="950" spans="1:5" ht="20" customHeight="1">
       <c r="A950" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B950" s="11" t="s">
         <v>7</v>
@@ -21299,7 +21333,7 @@
     </row>
     <row r="951" spans="1:5" ht="20" customHeight="1">
       <c r="A951" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B951" s="11" t="s">
         <v>7</v>
@@ -21317,7 +21351,7 @@
     </row>
     <row r="952" spans="1:5" ht="20" customHeight="1">
       <c r="A952" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B952" s="11" t="s">
         <v>7</v>
@@ -21335,7 +21369,7 @@
     </row>
     <row r="953" spans="1:5" ht="20" customHeight="1">
       <c r="A953" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B953" s="11" t="s">
         <v>7</v>
@@ -21353,7 +21387,7 @@
     </row>
     <row r="954" spans="1:5" ht="20" customHeight="1">
       <c r="A954" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B954" s="11" t="s">
         <v>7</v>
@@ -21371,7 +21405,7 @@
     </row>
     <row r="955" spans="1:5" ht="20" customHeight="1">
       <c r="A955" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B955" s="11" t="s">
         <v>7</v>
@@ -21389,7 +21423,7 @@
     </row>
     <row r="956" spans="1:5" ht="20" customHeight="1">
       <c r="A956" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B956" s="11" t="s">
         <v>7</v>
@@ -21407,7 +21441,7 @@
     </row>
     <row r="957" spans="1:5" ht="20" customHeight="1">
       <c r="A957" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B957" s="11" t="s">
         <v>7</v>
@@ -21425,7 +21459,7 @@
     </row>
     <row r="958" spans="1:5" ht="20" customHeight="1">
       <c r="A958" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B958" s="11" t="s">
         <v>7</v>
@@ -21443,7 +21477,7 @@
     </row>
     <row r="959" spans="1:5" ht="20" customHeight="1">
       <c r="A959" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B959" s="11" t="s">
         <v>7</v>
@@ -21461,7 +21495,7 @@
     </row>
     <row r="960" spans="1:5" ht="20" customHeight="1">
       <c r="A960" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B960" s="11" t="s">
         <v>7</v>
@@ -21479,7 +21513,7 @@
     </row>
     <row r="961" spans="1:5" ht="20" customHeight="1">
       <c r="A961" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B961" s="11" t="s">
         <v>7</v>
@@ -21497,7 +21531,7 @@
     </row>
     <row r="962" spans="1:5" ht="20" customHeight="1">
       <c r="A962" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B962" s="11" t="s">
         <v>7</v>
@@ -21515,7 +21549,7 @@
     </row>
     <row r="963" spans="1:5" ht="20" customHeight="1">
       <c r="A963" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B963" s="11" t="s">
         <v>7</v>
@@ -21533,7 +21567,7 @@
     </row>
     <row r="964" spans="1:5" ht="20" customHeight="1">
       <c r="A964" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B964" s="11" t="s">
         <v>7</v>
@@ -21551,7 +21585,7 @@
     </row>
     <row r="965" spans="1:5" ht="20" customHeight="1">
       <c r="A965" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B965" s="11" t="s">
         <v>7</v>
@@ -21569,7 +21603,7 @@
     </row>
     <row r="966" spans="1:5" ht="20" customHeight="1">
       <c r="A966" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B966" s="11" t="s">
         <v>7</v>
@@ -21587,7 +21621,7 @@
     </row>
     <row r="967" spans="1:5" ht="20" customHeight="1">
       <c r="A967" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B967" s="11" t="s">
         <v>7</v>
@@ -21605,7 +21639,7 @@
     </row>
     <row r="968" spans="1:5" ht="20" customHeight="1">
       <c r="A968" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B968" s="11" t="s">
         <v>7</v>
@@ -21623,7 +21657,7 @@
     </row>
     <row r="969" spans="1:5" ht="20" customHeight="1">
       <c r="A969" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B969" s="11" t="s">
         <v>7</v>
@@ -21641,7 +21675,7 @@
     </row>
     <row r="970" spans="1:5" ht="20" customHeight="1">
       <c r="A970" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B970" s="11" t="s">
         <v>7</v>
@@ -21659,7 +21693,7 @@
     </row>
     <row r="971" spans="1:5" ht="20" customHeight="1">
       <c r="A971" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B971" s="11" t="s">
         <v>7</v>
@@ -21677,7 +21711,7 @@
     </row>
     <row r="972" spans="1:5" ht="20" customHeight="1">
       <c r="A972" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B972" s="11" t="s">
         <v>7</v>
@@ -21695,7 +21729,7 @@
     </row>
     <row r="973" spans="1:5" ht="20" customHeight="1">
       <c r="A973" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B973" s="11" t="s">
         <v>7</v>
@@ -21713,7 +21747,7 @@
     </row>
     <row r="974" spans="1:5" ht="20" customHeight="1">
       <c r="A974" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B974" s="11" t="s">
         <v>7</v>
@@ -21731,7 +21765,7 @@
     </row>
     <row r="975" spans="1:5" ht="20" customHeight="1">
       <c r="A975" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B975" s="11" t="s">
         <v>7</v>
@@ -21749,7 +21783,7 @@
     </row>
     <row r="976" spans="1:5" ht="20" customHeight="1">
       <c r="A976" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B976" s="11" t="s">
         <v>7</v>
@@ -21767,7 +21801,7 @@
     </row>
     <row r="977" spans="1:5" ht="20" customHeight="1">
       <c r="A977" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B977" s="11" t="s">
         <v>7</v>
@@ -21785,7 +21819,7 @@
     </row>
     <row r="978" spans="1:5" ht="20" customHeight="1">
       <c r="A978" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B978" s="11" t="s">
         <v>7</v>
@@ -21803,7 +21837,7 @@
     </row>
     <row r="979" spans="1:5" ht="20" customHeight="1">
       <c r="A979" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B979" s="11" t="s">
         <v>7</v>
@@ -21821,7 +21855,7 @@
     </row>
     <row r="980" spans="1:5" ht="20" customHeight="1">
       <c r="A980" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B980" s="11" t="s">
         <v>7</v>
@@ -21839,7 +21873,7 @@
     </row>
     <row r="981" spans="1:5" ht="20" customHeight="1">
       <c r="A981" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B981" s="11" t="s">
         <v>7</v>
@@ -21857,7 +21891,7 @@
     </row>
     <row r="982" spans="1:5" ht="20" customHeight="1">
       <c r="A982" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B982" s="11" t="s">
         <v>7</v>
@@ -21875,7 +21909,7 @@
     </row>
     <row r="983" spans="1:5" ht="20" customHeight="1">
       <c r="A983" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B983" s="11" t="s">
         <v>7</v>
@@ -21893,7 +21927,7 @@
     </row>
     <row r="984" spans="1:5" ht="20" customHeight="1">
       <c r="A984" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B984" s="11" t="s">
         <v>7</v>
@@ -21911,7 +21945,7 @@
     </row>
     <row r="985" spans="1:5" ht="20" customHeight="1">
       <c r="A985" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B985" s="11" t="s">
         <v>7</v>
@@ -21929,7 +21963,7 @@
     </row>
     <row r="986" spans="1:5" ht="20" customHeight="1">
       <c r="A986" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B986" s="11" t="s">
         <v>7</v>
@@ -21947,7 +21981,7 @@
     </row>
     <row r="987" spans="1:5" ht="20" customHeight="1">
       <c r="A987" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B987" s="11" t="s">
         <v>7</v>
@@ -21965,7 +21999,7 @@
     </row>
     <row r="988" spans="1:5" ht="20" customHeight="1">
       <c r="A988" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B988" s="11" t="s">
         <v>7</v>
@@ -21983,7 +22017,7 @@
     </row>
     <row r="989" spans="1:5" ht="20" customHeight="1">
       <c r="A989" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B989" s="11" t="s">
         <v>7</v>
@@ -22001,7 +22035,7 @@
     </row>
     <row r="990" spans="1:5" ht="20" customHeight="1">
       <c r="A990" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B990" s="11" t="s">
         <v>7</v>
@@ -22019,7 +22053,7 @@
     </row>
     <row r="991" spans="1:5" ht="20" customHeight="1">
       <c r="A991" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B991" s="11" t="s">
         <v>7</v>
@@ -22037,7 +22071,7 @@
     </row>
     <row r="992" spans="1:5" ht="20" customHeight="1">
       <c r="A992" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B992" s="11" t="s">
         <v>7</v>
@@ -22055,7 +22089,7 @@
     </row>
     <row r="993" spans="1:5" ht="20" customHeight="1">
       <c r="A993" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B993" s="11" t="s">
         <v>7</v>
@@ -22073,7 +22107,7 @@
     </row>
     <row r="994" spans="1:5" ht="20" customHeight="1">
       <c r="A994" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B994" s="11" t="s">
         <v>7</v>
@@ -22091,7 +22125,7 @@
     </row>
     <row r="995" spans="1:5" ht="20" customHeight="1">
       <c r="A995" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B995" s="11" t="s">
         <v>7</v>
@@ -22109,7 +22143,7 @@
     </row>
     <row r="996" spans="1:5" ht="20" customHeight="1">
       <c r="A996" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B996" s="11" t="s">
         <v>7</v>
@@ -22127,7 +22161,7 @@
     </row>
     <row r="997" spans="1:5" ht="20" customHeight="1">
       <c r="A997" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B997" s="11" t="s">
         <v>7</v>
@@ -22145,7 +22179,7 @@
     </row>
     <row r="998" spans="1:5" ht="20" customHeight="1">
       <c r="A998" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B998" s="11" t="s">
         <v>7</v>
@@ -22163,7 +22197,7 @@
     </row>
     <row r="999" spans="1:5" ht="20" customHeight="1">
       <c r="A999" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B999" s="11" t="s">
         <v>7</v>
@@ -22181,7 +22215,7 @@
     </row>
     <row r="1000" spans="1:5" ht="20" customHeight="1">
       <c r="A1000" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1000" s="11" t="s">
         <v>7</v>
@@ -22199,7 +22233,7 @@
     </row>
     <row r="1001" spans="1:5" ht="20" customHeight="1">
       <c r="A1001" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1001" s="11" t="s">
         <v>7</v>
@@ -22217,7 +22251,7 @@
     </row>
     <row r="1002" spans="1:5" ht="20" customHeight="1">
       <c r="A1002" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1002" s="11" t="s">
         <v>7</v>
@@ -22235,7 +22269,7 @@
     </row>
     <row r="1003" spans="1:5" ht="20" customHeight="1">
       <c r="A1003" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1003" s="11" t="s">
         <v>7</v>
@@ -22253,7 +22287,7 @@
     </row>
     <row r="1004" spans="1:5" ht="20" customHeight="1">
       <c r="A1004" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1004" s="11" t="s">
         <v>7</v>
@@ -22271,7 +22305,7 @@
     </row>
     <row r="1005" spans="1:5" ht="20" customHeight="1">
       <c r="A1005" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1005" s="11" t="s">
         <v>7</v>
@@ -22289,7 +22323,7 @@
     </row>
     <row r="1006" spans="1:5" ht="20" customHeight="1">
       <c r="A1006" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1006" s="11" t="s">
         <v>7</v>
@@ -22307,7 +22341,7 @@
     </row>
     <row r="1007" spans="1:5" ht="20" customHeight="1">
       <c r="A1007" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1007" s="11" t="s">
         <v>7</v>
@@ -22325,7 +22359,7 @@
     </row>
     <row r="1008" spans="1:5" ht="20" customHeight="1">
       <c r="A1008" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1008" s="11" t="s">
         <v>7</v>
@@ -22343,7 +22377,7 @@
     </row>
     <row r="1009" spans="1:5" ht="20" customHeight="1">
       <c r="A1009" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1009" s="11" t="s">
         <v>7</v>
@@ -22361,7 +22395,7 @@
     </row>
     <row r="1010" spans="1:5" ht="20" customHeight="1">
       <c r="A1010" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1010" s="11" t="s">
         <v>7</v>
@@ -22379,7 +22413,7 @@
     </row>
     <row r="1011" spans="1:5" ht="20" customHeight="1">
       <c r="A1011" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1011" s="11" t="s">
         <v>7</v>
@@ -22397,7 +22431,7 @@
     </row>
     <row r="1012" spans="1:5" ht="20" customHeight="1">
       <c r="A1012" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1012" s="11" t="s">
         <v>7</v>
@@ -22415,7 +22449,7 @@
     </row>
     <row r="1013" spans="1:5" ht="20" customHeight="1">
       <c r="A1013" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1013" s="11" t="s">
         <v>7</v>
@@ -22433,7 +22467,7 @@
     </row>
     <row r="1014" spans="1:5" ht="20" customHeight="1">
       <c r="A1014" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1014" s="11" t="s">
         <v>7</v>
@@ -22451,7 +22485,7 @@
     </row>
     <row r="1015" spans="1:5" ht="20" customHeight="1">
       <c r="A1015" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1015" s="11" t="s">
         <v>7</v>
@@ -22469,7 +22503,7 @@
     </row>
     <row r="1016" spans="1:5" ht="20" customHeight="1">
       <c r="A1016" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1016" s="11" t="s">
         <v>7</v>
@@ -22487,7 +22521,7 @@
     </row>
     <row r="1017" spans="1:5" ht="20" customHeight="1">
       <c r="A1017" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1017" s="11" t="s">
         <v>7</v>
@@ -22505,7 +22539,7 @@
     </row>
     <row r="1018" spans="1:5" ht="20" customHeight="1">
       <c r="A1018" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1018" s="11" t="s">
         <v>7</v>
@@ -22523,7 +22557,7 @@
     </row>
     <row r="1019" spans="1:5" ht="20" customHeight="1">
       <c r="A1019" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1019" s="11" t="s">
         <v>7</v>
@@ -22541,7 +22575,7 @@
     </row>
     <row r="1020" spans="1:5" ht="20" customHeight="1">
       <c r="A1020" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1020" s="11" t="s">
         <v>7</v>
@@ -22559,7 +22593,7 @@
     </row>
     <row r="1021" spans="1:5" ht="20" customHeight="1">
       <c r="A1021" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1021" s="11" t="s">
         <v>7</v>
@@ -22577,7 +22611,7 @@
     </row>
     <row r="1022" spans="1:5" ht="20" customHeight="1">
       <c r="A1022" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1022" s="11" t="s">
         <v>7</v>
@@ -22595,7 +22629,7 @@
     </row>
     <row r="1023" spans="1:5" ht="20" customHeight="1">
       <c r="A1023" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1023" s="11" t="s">
         <v>7</v>
@@ -22613,7 +22647,7 @@
     </row>
     <row r="1024" spans="1:5" ht="20" customHeight="1">
       <c r="A1024" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1024" s="11" t="s">
         <v>7</v>
@@ -22631,7 +22665,7 @@
     </row>
     <row r="1025" spans="1:5" ht="20" customHeight="1">
       <c r="A1025" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1025" s="11" t="s">
         <v>7</v>
@@ -22649,7 +22683,7 @@
     </row>
     <row r="1026" spans="1:5" ht="20" customHeight="1">
       <c r="A1026" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1026" s="11" t="s">
         <v>7</v>
@@ -22667,7 +22701,7 @@
     </row>
     <row r="1027" spans="1:5" ht="20" customHeight="1">
       <c r="A1027" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1027" s="11" t="s">
         <v>7</v>
@@ -22685,7 +22719,7 @@
     </row>
     <row r="1028" spans="1:5" ht="20" customHeight="1">
       <c r="A1028" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1028" s="11" t="s">
         <v>7</v>
@@ -22703,7 +22737,7 @@
     </row>
     <row r="1029" spans="1:5" ht="20" customHeight="1">
       <c r="A1029" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1029" s="11" t="s">
         <v>7</v>
@@ -22721,7 +22755,7 @@
     </row>
     <row r="1030" spans="1:5" ht="20" customHeight="1">
       <c r="A1030" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1030" s="11" t="s">
         <v>7</v>
@@ -22739,7 +22773,7 @@
     </row>
     <row r="1031" spans="1:5" ht="20" customHeight="1">
       <c r="A1031" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1031" s="11" t="s">
         <v>7</v>
@@ -22757,7 +22791,7 @@
     </row>
     <row r="1032" spans="1:5" ht="20" customHeight="1">
       <c r="A1032" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1032" s="11" t="s">
         <v>7</v>
@@ -22775,7 +22809,7 @@
     </row>
     <row r="1033" spans="1:5" ht="20" customHeight="1">
       <c r="A1033" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1033" s="11" t="s">
         <v>7</v>
@@ -22793,7 +22827,7 @@
     </row>
     <row r="1034" spans="1:5" ht="20" customHeight="1">
       <c r="A1034" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1034" s="11" t="s">
         <v>7</v>
@@ -22811,7 +22845,7 @@
     </row>
     <row r="1035" spans="1:5" ht="20" customHeight="1">
       <c r="A1035" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1035" s="11" t="s">
         <v>7</v>
@@ -22829,7 +22863,7 @@
     </row>
     <row r="1036" spans="1:5" ht="20" customHeight="1">
       <c r="A1036" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1036" s="11" t="s">
         <v>7</v>
@@ -22847,7 +22881,7 @@
     </row>
     <row r="1037" spans="1:5" ht="20" customHeight="1">
       <c r="A1037" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1037" s="11" t="s">
         <v>7</v>
@@ -22865,7 +22899,7 @@
     </row>
     <row r="1038" spans="1:5" ht="20" customHeight="1">
       <c r="A1038" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1038" s="11" t="s">
         <v>7</v>
@@ -22883,7 +22917,7 @@
     </row>
     <row r="1039" spans="1:5" ht="20" customHeight="1">
       <c r="A1039" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1039" s="11" t="s">
         <v>7</v>
@@ -22901,7 +22935,7 @@
     </row>
     <row r="1040" spans="1:5" ht="20" customHeight="1">
       <c r="A1040" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1040" s="11" t="s">
         <v>7</v>
@@ -22919,7 +22953,7 @@
     </row>
     <row r="1041" spans="1:5" ht="20" customHeight="1">
       <c r="A1041" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1041" s="11" t="s">
         <v>7</v>
@@ -22937,7 +22971,7 @@
     </row>
     <row r="1042" spans="1:5" ht="20" customHeight="1">
       <c r="A1042" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1042" s="11" t="s">
         <v>7</v>
@@ -22955,7 +22989,7 @@
     </row>
     <row r="1043" spans="1:5" ht="20" customHeight="1">
       <c r="A1043" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1043" s="11" t="s">
         <v>7</v>
@@ -22973,7 +23007,7 @@
     </row>
     <row r="1044" spans="1:5" ht="20" customHeight="1">
       <c r="A1044" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1044" s="11" t="s">
         <v>7</v>
@@ -22991,7 +23025,7 @@
     </row>
     <row r="1045" spans="1:5" ht="20" customHeight="1">
       <c r="A1045" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1045" s="11" t="s">
         <v>7</v>
@@ -23009,7 +23043,7 @@
     </row>
     <row r="1046" spans="1:5" ht="20" customHeight="1">
       <c r="A1046" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1046" s="11" t="s">
         <v>7</v>
@@ -23027,7 +23061,7 @@
     </row>
     <row r="1047" spans="1:5" ht="20" customHeight="1">
       <c r="A1047" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1047" s="11" t="s">
         <v>7</v>
@@ -23045,7 +23079,7 @@
     </row>
     <row r="1048" spans="1:5" ht="20" customHeight="1">
       <c r="A1048" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1048" s="11" t="s">
         <v>7</v>
@@ -23063,7 +23097,7 @@
     </row>
     <row r="1049" spans="1:5" ht="20" customHeight="1">
       <c r="A1049" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1049" s="11" t="s">
         <v>7</v>
@@ -23081,7 +23115,7 @@
     </row>
     <row r="1050" spans="1:5" ht="20" customHeight="1">
       <c r="A1050" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B1050" s="11" t="s">
         <v>7</v>
@@ -23099,7 +23133,7 @@
     </row>
     <row r="1051" spans="1:5" ht="20" customHeight="1">
       <c r="A1051" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1051" s="11" t="s">
         <v>7</v>
@@ -23117,7 +23151,7 @@
     </row>
     <row r="1052" spans="1:5" ht="20" customHeight="1">
       <c r="A1052" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1052" s="11" t="s">
         <v>7</v>
@@ -23135,7 +23169,7 @@
     </row>
     <row r="1053" spans="1:5" ht="20" customHeight="1">
       <c r="A1053" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1053" s="11" t="s">
         <v>7</v>
@@ -23153,7 +23187,7 @@
     </row>
     <row r="1054" spans="1:5" ht="20" customHeight="1">
       <c r="A1054" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1054" s="11" t="s">
         <v>7</v>
@@ -23171,7 +23205,7 @@
     </row>
     <row r="1055" spans="1:5" ht="20" customHeight="1">
       <c r="A1055" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1055" s="11" t="s">
         <v>7</v>
@@ -23189,7 +23223,7 @@
     </row>
     <row r="1056" spans="1:5" ht="20" customHeight="1">
       <c r="A1056" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1056" s="11" t="s">
         <v>7</v>
@@ -23207,7 +23241,7 @@
     </row>
     <row r="1057" spans="1:5" ht="20" customHeight="1">
       <c r="A1057" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1057" s="11" t="s">
         <v>7</v>
@@ -23225,7 +23259,7 @@
     </row>
     <row r="1058" spans="1:5" ht="20" customHeight="1">
       <c r="A1058" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1058" s="11" t="s">
         <v>7</v>
@@ -23297,7 +23331,7 @@
     </row>
     <row r="1062" spans="1:5" ht="20" customHeight="1">
       <c r="A1062" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B1062" s="11" t="s">
         <v>7</v>
@@ -23315,7 +23349,7 @@
     </row>
     <row r="1063" spans="1:5" ht="20" customHeight="1">
       <c r="A1063" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B1063" s="11" t="s">
         <v>7</v>
@@ -23333,7 +23367,7 @@
     </row>
     <row r="1064" spans="1:5" ht="20" customHeight="1">
       <c r="A1064" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1064" s="11" t="s">
         <v>7</v>
@@ -23351,7 +23385,7 @@
     </row>
     <row r="1065" spans="1:5" ht="20" customHeight="1">
       <c r="A1065" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1065" s="11" t="s">
         <v>7</v>
@@ -23369,7 +23403,7 @@
     </row>
     <row r="1066" spans="1:5" ht="20" customHeight="1">
       <c r="A1066" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1066" s="11" t="s">
         <v>7</v>
@@ -23387,7 +23421,7 @@
     </row>
     <row r="1067" spans="1:5" ht="20" customHeight="1">
       <c r="A1067" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1067" s="11" t="s">
         <v>7</v>
@@ -23405,7 +23439,7 @@
     </row>
     <row r="1068" spans="1:5" ht="20" customHeight="1">
       <c r="A1068" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1068" s="11" t="s">
         <v>7</v>
@@ -23423,7 +23457,7 @@
     </row>
     <row r="1069" spans="1:5" ht="20" customHeight="1">
       <c r="A1069" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1069" s="11" t="s">
         <v>7</v>
@@ -23441,7 +23475,7 @@
     </row>
     <row r="1070" spans="1:5" ht="20" customHeight="1">
       <c r="A1070" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1070" s="11" t="s">
         <v>7</v>
@@ -23459,7 +23493,7 @@
     </row>
     <row r="1071" spans="1:5" ht="20" customHeight="1">
       <c r="A1071" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1071" s="11" t="s">
         <v>7</v>
@@ -23477,7 +23511,7 @@
     </row>
     <row r="1072" spans="1:5" ht="20" customHeight="1">
       <c r="A1072" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1072" s="11" t="s">
         <v>7</v>
@@ -23495,7 +23529,7 @@
     </row>
     <row r="1073" spans="1:5" ht="20" customHeight="1">
       <c r="A1073" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1073" s="11" t="s">
         <v>7</v>
@@ -23513,7 +23547,7 @@
     </row>
     <row r="1074" spans="1:5" ht="20" customHeight="1">
       <c r="A1074" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1074" s="11" t="s">
         <v>7</v>
@@ -23531,7 +23565,7 @@
     </row>
     <row r="1075" spans="1:5" ht="20" customHeight="1">
       <c r="A1075" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1075" s="11" t="s">
         <v>7</v>
@@ -23549,7 +23583,7 @@
     </row>
     <row r="1076" spans="1:5" ht="20" customHeight="1">
       <c r="A1076" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1076" s="11" t="s">
         <v>7</v>
@@ -23567,7 +23601,7 @@
     </row>
     <row r="1077" spans="1:5" ht="20" customHeight="1">
       <c r="A1077" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1077" s="11" t="s">
         <v>7</v>
@@ -23585,7 +23619,7 @@
     </row>
     <row r="1078" spans="1:5" ht="20" customHeight="1">
       <c r="A1078" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1078" s="11" t="s">
         <v>7</v>
@@ -23603,7 +23637,7 @@
     </row>
     <row r="1079" spans="1:5" ht="20" customHeight="1">
       <c r="A1079" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1079" s="11" t="s">
         <v>7</v>
@@ -23621,7 +23655,7 @@
     </row>
     <row r="1080" spans="1:5" ht="20" customHeight="1">
       <c r="A1080" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1080" s="11" t="s">
         <v>7</v>
@@ -23639,7 +23673,7 @@
     </row>
     <row r="1081" spans="1:5" ht="20" customHeight="1">
       <c r="A1081" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1081" s="11" t="s">
         <v>7</v>
@@ -23657,7 +23691,7 @@
     </row>
     <row r="1082" spans="1:5" ht="20" customHeight="1">
       <c r="A1082" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1082" s="11" t="s">
         <v>7</v>
@@ -23675,7 +23709,7 @@
     </row>
     <row r="1083" spans="1:5" ht="20" customHeight="1">
       <c r="A1083" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1083" s="11" t="s">
         <v>7</v>
@@ -23693,7 +23727,7 @@
     </row>
     <row r="1084" spans="1:5" ht="20" customHeight="1">
       <c r="A1084" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1084" s="11" t="s">
         <v>7</v>
@@ -23711,7 +23745,7 @@
     </row>
     <row r="1085" spans="1:5" ht="20" customHeight="1">
       <c r="A1085" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1085" s="11" t="s">
         <v>7</v>
@@ -23729,7 +23763,7 @@
     </row>
     <row r="1086" spans="1:5" ht="20" customHeight="1">
       <c r="A1086" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1086" s="11" t="s">
         <v>7</v>
@@ -23747,7 +23781,7 @@
     </row>
     <row r="1087" spans="1:5" ht="20" customHeight="1">
       <c r="A1087" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1087" s="11" t="s">
         <v>7</v>
@@ -23765,7 +23799,7 @@
     </row>
     <row r="1088" spans="1:5" ht="20" customHeight="1">
       <c r="A1088" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1088" s="11" t="s">
         <v>7</v>
@@ -23783,7 +23817,7 @@
     </row>
     <row r="1089" spans="1:5" ht="20" customHeight="1">
       <c r="A1089" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1089" s="11" t="s">
         <v>7</v>
@@ -23801,7 +23835,7 @@
     </row>
     <row r="1090" spans="1:5" ht="20" customHeight="1">
       <c r="A1090" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1090" s="11" t="s">
         <v>7</v>
@@ -23819,7 +23853,7 @@
     </row>
     <row r="1091" spans="1:5" ht="20" customHeight="1">
       <c r="A1091" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1091" s="11" t="s">
         <v>7</v>
@@ -23837,7 +23871,7 @@
     </row>
     <row r="1092" spans="1:5" ht="20" customHeight="1">
       <c r="A1092" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1092" s="11" t="s">
         <v>7</v>
@@ -23855,7 +23889,7 @@
     </row>
     <row r="1093" spans="1:5" ht="20" customHeight="1">
       <c r="A1093" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1093" s="11" t="s">
         <v>7</v>
@@ -23873,7 +23907,7 @@
     </row>
     <row r="1094" spans="1:5" ht="20" customHeight="1">
       <c r="A1094" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1094" s="11" t="s">
         <v>7</v>
@@ -23891,7 +23925,7 @@
     </row>
     <row r="1095" spans="1:5" ht="20" customHeight="1">
       <c r="A1095" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1095" s="11" t="s">
         <v>7</v>
@@ -23909,7 +23943,7 @@
     </row>
     <row r="1096" spans="1:5" ht="20" customHeight="1">
       <c r="A1096" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1096" s="11" t="s">
         <v>7</v>
@@ -23927,7 +23961,7 @@
     </row>
     <row r="1097" spans="1:5" ht="20" customHeight="1">
       <c r="A1097" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1097" s="11" t="s">
         <v>7</v>
@@ -23945,7 +23979,7 @@
     </row>
     <row r="1098" spans="1:5" ht="20" customHeight="1">
       <c r="A1098" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1098" s="11" t="s">
         <v>7</v>
@@ -23963,7 +23997,7 @@
     </row>
     <row r="1099" spans="1:5" ht="20" customHeight="1">
       <c r="A1099" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1099" s="11" t="s">
         <v>7</v>
@@ -23981,7 +24015,7 @@
     </row>
     <row r="1100" spans="1:5" ht="20" customHeight="1">
       <c r="A1100" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1100" s="11" t="s">
         <v>7</v>
@@ -23999,7 +24033,7 @@
     </row>
     <row r="1101" spans="1:5" ht="20" customHeight="1">
       <c r="A1101" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1101" s="11" t="s">
         <v>7</v>
@@ -24017,7 +24051,7 @@
     </row>
     <row r="1102" spans="1:5" ht="20" customHeight="1">
       <c r="A1102" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1102" s="11" t="s">
         <v>7</v>
@@ -24035,7 +24069,7 @@
     </row>
     <row r="1103" spans="1:5" ht="20" customHeight="1">
       <c r="A1103" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1103" s="11" t="s">
         <v>7</v>
@@ -24053,7 +24087,7 @@
     </row>
     <row r="1104" spans="1:5" ht="20" customHeight="1">
       <c r="A1104" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1104" s="11" t="s">
         <v>7</v>
@@ -24071,7 +24105,7 @@
     </row>
     <row r="1105" spans="1:5" ht="20" customHeight="1">
       <c r="A1105" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1105" s="11" t="s">
         <v>7</v>
@@ -24089,7 +24123,7 @@
     </row>
     <row r="1106" spans="1:5" ht="20" customHeight="1">
       <c r="A1106" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1106" s="11" t="s">
         <v>7</v>
@@ -24107,7 +24141,7 @@
     </row>
     <row r="1107" spans="1:5" ht="20" customHeight="1">
       <c r="A1107" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1107" s="11" t="s">
         <v>7</v>
@@ -24125,7 +24159,7 @@
     </row>
     <row r="1108" spans="1:5" ht="20" customHeight="1">
       <c r="A1108" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1108" s="11" t="s">
         <v>7</v>
@@ -24143,7 +24177,7 @@
     </row>
     <row r="1109" spans="1:5" ht="20" customHeight="1">
       <c r="A1109" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1109" s="11" t="s">
         <v>7</v>
@@ -24161,7 +24195,7 @@
     </row>
     <row r="1110" spans="1:5" ht="20" customHeight="1">
       <c r="A1110" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1110" s="11" t="s">
         <v>7</v>
@@ -24179,7 +24213,7 @@
     </row>
     <row r="1111" spans="1:5" ht="20" customHeight="1">
       <c r="A1111" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1111" s="11" t="s">
         <v>7</v>
@@ -24197,7 +24231,7 @@
     </row>
     <row r="1112" spans="1:5" ht="20" customHeight="1">
       <c r="A1112" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1112" s="11" t="s">
         <v>7</v>
@@ -24215,7 +24249,7 @@
     </row>
     <row r="1113" spans="1:5" ht="20" customHeight="1">
       <c r="A1113" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1113" s="11" t="s">
         <v>7</v>
@@ -24233,7 +24267,7 @@
     </row>
     <row r="1114" spans="1:5" ht="20" customHeight="1">
       <c r="A1114" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1114" s="11" t="s">
         <v>7</v>
@@ -24251,7 +24285,7 @@
     </row>
     <row r="1115" spans="1:5" ht="20" customHeight="1">
       <c r="A1115" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1115" s="11" t="s">
         <v>7</v>
@@ -24269,7 +24303,7 @@
     </row>
     <row r="1116" spans="1:5" ht="20" customHeight="1">
       <c r="A1116" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1116" s="11" t="s">
         <v>7</v>
@@ -24287,7 +24321,7 @@
     </row>
     <row r="1117" spans="1:5" ht="20" customHeight="1">
       <c r="A1117" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1117" s="11" t="s">
         <v>7</v>
@@ -24314,7 +24348,7 @@
         <v>55</v>
       </c>
       <c r="D1118" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E1118" s="11" cm="1">
         <f t="array" ref="E1118">IF(C1118="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1118)*(工作表2!B:B=D1118), 0)),""))</f>
@@ -24332,7 +24366,7 @@
         <v>55</v>
       </c>
       <c r="D1119" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E1119" s="11" cm="1">
         <f t="array" ref="E1119">IF(C1119="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1119)*(工作表2!B:B=D1119), 0)),""))</f>
@@ -24350,7 +24384,7 @@
         <v>55</v>
       </c>
       <c r="D1120" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E1120" s="11" cm="1">
         <f t="array" ref="E1120">IF(C1120="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1120)*(工作表2!B:B=D1120), 0)),""))</f>
@@ -24368,7 +24402,7 @@
         <v>55</v>
       </c>
       <c r="D1121" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E1121" s="11" cm="1">
         <f t="array" ref="E1121">IF(C1121="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1121)*(工作表2!B:B=D1121), 0)),""))</f>
@@ -24386,7 +24420,7 @@
         <v>55</v>
       </c>
       <c r="D1122" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E1122" s="11" cm="1">
         <f t="array" ref="E1122">IF(C1122="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1122)*(工作表2!B:B=D1122), 0)),""))</f>
@@ -24404,7 +24438,7 @@
         <v>55</v>
       </c>
       <c r="D1123" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E1123" s="11" cm="1">
         <f t="array" ref="E1123">IF(C1123="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1123)*(工作表2!B:B=D1123), 0)),""))</f>
@@ -24422,7 +24456,7 @@
         <v>55</v>
       </c>
       <c r="D1124" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E1124" s="11" cm="1">
         <f t="array" ref="E1124">IF(C1124="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1124)*(工作表2!B:B=D1124), 0)),""))</f>
@@ -24440,7 +24474,7 @@
         <v>55</v>
       </c>
       <c r="D1125" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E1125" s="11" cm="1">
         <f t="array" ref="E1125">IF(C1125="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1125)*(工作表2!B:B=D1125), 0)),""))</f>
@@ -24458,7 +24492,7 @@
         <v>55</v>
       </c>
       <c r="D1126" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E1126" s="11" cm="1">
         <f t="array" ref="E1126">IF(C1126="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1126)*(工作表2!B:B=D1126), 0)),""))</f>
@@ -24476,7 +24510,7 @@
         <v>55</v>
       </c>
       <c r="D1127" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E1127" s="11" cm="1">
         <f t="array" ref="E1127">IF(C1127="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1127)*(工作表2!B:B=D1127), 0)),""))</f>
@@ -24494,7 +24528,7 @@
         <v>55</v>
       </c>
       <c r="D1128" s="11" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E1128" s="11" cm="1">
         <f t="array" ref="E1128">IF(C1128="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1128)*(工作表2!B:B=D1128), 0)),""))</f>
@@ -24512,7 +24546,7 @@
         <v>55</v>
       </c>
       <c r="D1129" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E1129" s="11" cm="1">
         <f t="array" ref="E1129">IF(C1129="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1129)*(工作表2!B:B=D1129), 0)),""))</f>
@@ -24520,138 +24554,246 @@
       </c>
     </row>
     <row r="1130" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1130" s="11" t="str" cm="1">
+      <c r="A1130" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1130" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1130" s="11" cm="1">
         <f t="array" ref="E1130">IF(C1130="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1130)*(工作表2!B:B=D1130), 0)),""))</f>
-        <v/>
+        <v>27</v>
       </c>
     </row>
     <row r="1131" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1131" s="11" t="str" cm="1">
+      <c r="A1131" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1131" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1131" s="11" cm="1">
         <f t="array" ref="E1131">IF(C1131="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1131)*(工作表2!B:B=D1131), 0)),""))</f>
-        <v/>
+        <v>28</v>
       </c>
     </row>
     <row r="1132" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1132" s="11" t="str" cm="1">
+      <c r="A1132" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1132" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1132" s="11" cm="1">
         <f t="array" ref="E1132">IF(C1132="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1132)*(工作表2!B:B=D1132), 0)),""))</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="1133" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1133" s="11" t="str" cm="1">
+      <c r="A1133" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1133" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1133" s="11" cm="1">
         <f t="array" ref="E1133">IF(C1133="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1133)*(工作表2!B:B=D1133), 0)),""))</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="1134" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1134" s="11" t="str" cm="1">
+      <c r="A1134" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1134" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1134" s="11" cm="1">
         <f t="array" ref="E1134">IF(C1134="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1134)*(工作表2!B:B=D1134), 0)),""))</f>
-        <v/>
+        <v>34</v>
       </c>
     </row>
     <row r="1135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1135" s="11" t="str" cm="1">
+      <c r="A1135" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1135" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1135" s="11" cm="1">
         <f t="array" ref="E1135">IF(C1135="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1135)*(工作表2!B:B=D1135), 0)),""))</f>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="1136" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1136" s="11" t="str" cm="1">
+      <c r="A1136" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1136" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1136" s="11" cm="1">
         <f t="array" ref="E1136">IF(C1136="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1136)*(工作表2!B:B=D1136), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1137" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1137" s="11" t="str" cm="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1137" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1137" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1137" s="11" cm="1">
         <f t="array" ref="E1137">IF(C1137="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1137)*(工作表2!B:B=D1137), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1138" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1138" s="11" t="str" cm="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1138" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1138" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1138" s="11" cm="1">
         <f t="array" ref="E1138">IF(C1138="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1138)*(工作表2!B:B=D1138), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1139" spans="5:5" ht="15.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1139" s="11" t="str" cm="1">
         <f t="array" ref="E1139">IF(C1139="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1139)*(工作表2!B:B=D1139), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1140" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1140" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1140" s="11" t="str" cm="1">
         <f t="array" ref="E1140">IF(C1140="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1140)*(工作表2!B:B=D1140), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1141" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1141" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1141" s="11" t="str" cm="1">
         <f t="array" ref="E1141">IF(C1141="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1141)*(工作表2!B:B=D1141), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1142" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1142" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1142" s="11" t="str" cm="1">
         <f t="array" ref="E1142">IF(C1142="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1142)*(工作表2!B:B=D1142), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1143" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1143" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1143" s="11" t="str" cm="1">
         <f t="array" ref="E1143">IF(C1143="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1143)*(工作表2!B:B=D1143), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1144" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1144" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1144" s="11" t="str" cm="1">
         <f t="array" ref="E1144">IF(C1144="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1144)*(工作表2!B:B=D1144), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1145" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1145" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1145" s="11" t="str" cm="1">
         <f t="array" ref="E1145">IF(C1145="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1145)*(工作表2!B:B=D1145), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1146" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1146" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1146" s="11" t="str" cm="1">
         <f t="array" ref="E1146">IF(C1146="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1146)*(工作表2!B:B=D1146), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1147" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1147" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1147" s="11" t="str" cm="1">
         <f t="array" ref="E1147">IF(C1147="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1147)*(工作表2!B:B=D1147), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1148" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1148" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1148" s="11" t="str" cm="1">
         <f t="array" ref="E1148">IF(C1148="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1148)*(工作表2!B:B=D1148), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1149" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1149" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1149" s="11" t="str" cm="1">
         <f t="array" ref="E1149">IF(C1149="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1149)*(工作表2!B:B=D1149), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1150" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1150" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1150" s="11" t="str" cm="1">
         <f t="array" ref="E1150">IF(C1150="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1150)*(工作表2!B:B=D1150), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1151" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1151" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1151" s="11" t="str" cm="1">
         <f t="array" ref="E1151">IF(C1151="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1151)*(工作表2!B:B=D1151), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1152" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1152" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1152" s="11" t="str" cm="1">
         <f t="array" ref="E1152">IF(C1152="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1152)*(工作表2!B:B=D1152), 0)),""))</f>
         <v/>
@@ -29244,9 +29386,18 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E1ADEB20-C9B4-4356-AC8C-E038E7ADC0DE}"/>
+    <hyperlink ref="A1130" r:id="rId2" xr:uid="{EB8EB8C6-4DD0-084B-93E6-932BF9AC28B0}"/>
+    <hyperlink ref="A1131" r:id="rId3" xr:uid="{882CF2B5-957E-F644-8482-2EB08BEE3530}"/>
+    <hyperlink ref="A1132" r:id="rId4" xr:uid="{A0D1BCA5-299F-324E-BE4B-BE463B9A2AD9}"/>
+    <hyperlink ref="A1133" r:id="rId5" xr:uid="{715C507C-7721-CD42-AC57-5D9619650F80}"/>
+    <hyperlink ref="A1134" r:id="rId6" xr:uid="{056FDE6F-300D-F842-8735-2E646FAFEBFD}"/>
+    <hyperlink ref="A1135" r:id="rId7" xr:uid="{364DAA47-E538-BC46-9B45-4C0DEDDC4A30}"/>
+    <hyperlink ref="A1136" r:id="rId8" xr:uid="{18FA1D2B-8337-4142-8353-407AD20CCE08}"/>
+    <hyperlink ref="A1137" r:id="rId9" xr:uid="{62433448-AE51-954F-8167-58823945E632}"/>
+    <hyperlink ref="A1138" r:id="rId10" xr:uid="{66AE19E6-A97F-F044-9C8F-6B0A5F841916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -29258,167 +29409,167 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="19" t="s">
         <v>1119</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>1120</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13">
+    </row>
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13">
+      <c r="D2" s="20" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13">
+      <c r="D3" s="20" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13">
+      <c r="D4" s="20" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13">
+      <c r="D5" s="20" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13">
+      <c r="D6" s="20" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13">
+      <c r="D7" s="20" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13">
+      <c r="D8" s="20" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13">
+      <c r="D9" s="20" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13">
+      <c r="D10" s="20" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13">
+      <c r="D11" s="20" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
@@ -29429,7 +29580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
@@ -29440,7 +29591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -29451,7 +29602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
@@ -29462,7 +29613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
@@ -29473,7 +29624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
@@ -29484,7 +29635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
@@ -29495,7 +29646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -29506,7 +29657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -29517,7 +29668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -29528,7 +29679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -29539,12 +29690,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -29553,12 +29704,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -29567,7 +29718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13">
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
@@ -29581,7 +29732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
+    <row r="26" spans="1:4" ht="16">
       <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
@@ -29595,7 +29746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4" ht="16">
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
@@ -29609,7 +29760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13">
+    <row r="28" spans="1:4" ht="16">
       <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
@@ -29623,7 +29774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13">
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
@@ -29637,7 +29788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.5">
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -29648,10 +29799,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -29662,10 +29813,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.5">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16">
       <c r="A32" s="14" t="s">
         <v>26</v>
       </c>
@@ -29676,38 +29827,38 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="14" t="s">
         <v>26</v>
       </c>
@@ -29718,7 +29869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13">
+    <row r="36" spans="1:4" ht="16">
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
@@ -29729,7 +29880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13">
+    <row r="37" spans="1:4" ht="16">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
